--- a/app-procurment-lambda-serverless/API_List_Procurment-lambda.xlsx
+++ b/app-procurment-lambda-serverless/API_List_Procurment-lambda.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="actual apis" sheetId="3" r:id="rId1"/>
+    <sheet name="simulated apis" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="233">
   <si>
     <t>API</t>
   </si>
@@ -315,6 +316,426 @@
   </si>
   <si>
     <t>APPROVERS</t>
+  </si>
+  <si>
+    <t>/notifications</t>
+  </si>
+  <si>
+    <t>/department</t>
+  </si>
+  <si>
+    <t>/activity</t>
+  </si>
+  <si>
+    <t>/dashboardData</t>
+  </si>
+  <si>
+    <t>/budget</t>
+  </si>
+  <si>
+    <t>/bugetOverviewData</t>
+  </si>
+  <si>
+    <t>/kanbanList</t>
+  </si>
+  <si>
+    <t>/requisitions</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>/department/:id</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Details of currency</t>
+  </si>
+  <si>
+    <t>Details of department</t>
+  </si>
+  <si>
+    <t>Add department</t>
+  </si>
+  <si>
+    <t>Details about a selected department</t>
+  </si>
+  <si>
+    <t>Edit department Detail</t>
+  </si>
+  <si>
+    <t>detail about deleteDepartment</t>
+  </si>
+  <si>
+    <t>Add currency</t>
+  </si>
+  <si>
+    <t>Details about a selected currency</t>
+  </si>
+  <si>
+    <t>Edit currency Detail</t>
+  </si>
+  <si>
+    <t>deleteCurrency</t>
+  </si>
+  <si>
+    <t>requisitions</t>
+  </si>
+  <si>
+    <t>Details about a user</t>
+  </si>
+  <si>
+    <t>Details about a Requester</t>
+  </si>
+  <si>
+    <t>/requisitions/{id}</t>
+  </si>
+  <si>
+    <t>Edit Requester Detail</t>
+  </si>
+  <si>
+    <t>detail about deleteRequisition</t>
+  </si>
+  <si>
+    <t>/requisitions/{id}/{type}</t>
+  </si>
+  <si>
+    <t>Details about Approve Requisition</t>
+  </si>
+  <si>
+    <t>rfp</t>
+  </si>
+  <si>
+    <t>/rfp</t>
+  </si>
+  <si>
+    <t>Details about a RFP</t>
+  </si>
+  <si>
+    <t>Add status to RFP</t>
+  </si>
+  <si>
+    <t>/rfp/{id}</t>
+  </si>
+  <si>
+    <t>Details about a get Requisition by id</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>rfq</t>
+  </si>
+  <si>
+    <t>Details about a activity</t>
+  </si>
+  <si>
+    <t>Details about a RFQ</t>
+  </si>
+  <si>
+    <t>Add status to RFQ</t>
+  </si>
+  <si>
+    <t>/rfq</t>
+  </si>
+  <si>
+    <t>/rfq/{id}</t>
+  </si>
+  <si>
+    <t>get recievedRfq by id from list</t>
+  </si>
+  <si>
+    <t>/purchaseorders</t>
+  </si>
+  <si>
+    <t>purchaseorders</t>
+  </si>
+  <si>
+    <t>Details about a Generate PO</t>
+  </si>
+  <si>
+    <t>Add generate po detail</t>
+  </si>
+  <si>
+    <t>/purchaseorders/{id}</t>
+  </si>
+  <si>
+    <t>Details about a purchase order</t>
+  </si>
+  <si>
+    <t>Details for Approve PURCHASE ORDER</t>
+  </si>
+  <si>
+    <t>/purchaseorders/{type}/{id}</t>
+  </si>
+  <si>
+    <t>/contacts</t>
+  </si>
+  <si>
+    <t>Contact Detail</t>
+  </si>
+  <si>
+    <t>Details about a Contact</t>
+  </si>
+  <si>
+    <t>/contacts/{id}</t>
+  </si>
+  <si>
+    <t>getContact used for get contact from contact list by id</t>
+  </si>
+  <si>
+    <t>Edit contact</t>
+  </si>
+  <si>
+    <t>Delete Contact List</t>
+  </si>
+  <si>
+    <t>/invitation</t>
+  </si>
+  <si>
+    <t>Details about a invite user</t>
+  </si>
+  <si>
+    <t>Invoice Detail</t>
+  </si>
+  <si>
+    <t>Delete invoice List</t>
+  </si>
+  <si>
+    <t>/newInvoice</t>
+  </si>
+  <si>
+    <t>/buyers</t>
+  </si>
+  <si>
+    <t>Buyer Detail</t>
+  </si>
+  <si>
+    <t>/buyers/{id}</t>
+  </si>
+  <si>
+    <t>Details about a buyer</t>
+  </si>
+  <si>
+    <t>/committee</t>
+  </si>
+  <si>
+    <t>Committee Detail</t>
+  </si>
+  <si>
+    <t>Details about a set committee members</t>
+  </si>
+  <si>
+    <t>/committee/{type}</t>
+  </si>
+  <si>
+    <t>Detail of Committee Type</t>
+  </si>
+  <si>
+    <t>/vendor</t>
+  </si>
+  <si>
+    <t>Vendor Detail</t>
+  </si>
+  <si>
+    <t>Details about a vendor</t>
+  </si>
+  <si>
+    <t>/vendor/{id}</t>
+  </si>
+  <si>
+    <t>Delete Vendor</t>
+  </si>
+  <si>
+    <t>/chat</t>
+  </si>
+  <si>
+    <t>Detail of recently mail</t>
+  </si>
+  <si>
+    <t>/mailList</t>
+  </si>
+  <si>
+    <t>Detail of All mail</t>
+  </si>
+  <si>
+    <t>Details about a add emails</t>
+  </si>
+  <si>
+    <t>/mailList/{id}</t>
+  </si>
+  <si>
+    <t>Details about an Email</t>
+  </si>
+  <si>
+    <t>Detail about email is readred</t>
+  </si>
+  <si>
+    <t>Delete Email</t>
+  </si>
+  <si>
+    <t>Details of BudgetOverview</t>
+  </si>
+  <si>
+    <t>/bugetOverviewData/{id}</t>
+  </si>
+  <si>
+    <t>get particular budget details from budgetOverview list</t>
+  </si>
+  <si>
+    <t>kanban list</t>
+  </si>
+  <si>
+    <t>Add Kanban For Purpose</t>
+  </si>
+  <si>
+    <t>Update Kanban For Purpose</t>
+  </si>
+  <si>
+    <t>Dashboard Detail</t>
+  </si>
+  <si>
+    <t>/trackfrpdata</t>
+  </si>
+  <si>
+    <t>/trackfrpdata/{id}</t>
+  </si>
+  <si>
+    <t>Details about a get track FRP by id</t>
+  </si>
+  <si>
+    <t>/sendrfq</t>
+  </si>
+  <si>
+    <t>Details about a post track FRQ by id</t>
+  </si>
+  <si>
+    <t>get notification data</t>
+  </si>
+  <si>
+    <t>Model list</t>
+  </si>
+  <si>
+    <t>/reorts</t>
+  </si>
+  <si>
+    <t>Details of Reports</t>
+  </si>
+  <si>
+    <t>/vendorQuatation</t>
+  </si>
+  <si>
+    <t>Vendor Quatation List</t>
+  </si>
+  <si>
+    <t>/track</t>
+  </si>
+  <si>
+    <t>/track/{id}</t>
+  </si>
+  <si>
+    <t>/requestforpurpose</t>
+  </si>
+  <si>
+    <t>List of Request for purpose</t>
+  </si>
+  <si>
+    <t>Add Request For Purpose</t>
+  </si>
+  <si>
+    <t>/invoices</t>
+  </si>
+  <si>
+    <t>invoices</t>
+  </si>
+  <si>
+    <t>Add  request for invoices</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>Add Budget For Purpose</t>
+  </si>
+  <si>
+    <t>get budget</t>
+  </si>
+  <si>
+    <t>/requestForQuotation</t>
+  </si>
+  <si>
+    <t>Request For Quotation</t>
+  </si>
+  <si>
+    <t>/requestforpurpose/{id}</t>
+  </si>
+  <si>
+    <t>/contactlist</t>
+  </si>
+  <si>
+    <t>/itemlist</t>
+  </si>
+  <si>
+    <t>/membreslist</t>
+  </si>
+  <si>
+    <t>/supplierlist</t>
+  </si>
+  <si>
+    <t>/supplierproductlist</t>
+  </si>
+  <si>
+    <t>Add product</t>
+  </si>
+  <si>
+    <t>/activesupplierlist</t>
+  </si>
+  <si>
+    <t>/sellerslist</t>
+  </si>
+  <si>
+    <t>/supplierlist/{id}</t>
+  </si>
+  <si>
+    <t>List of sellers</t>
+  </si>
+  <si>
+    <t>supplier detail</t>
+  </si>
+  <si>
+    <t>/group</t>
+  </si>
+  <si>
+    <t>update super admin users list</t>
+  </si>
+  <si>
+    <t>/supplierandcategorylist</t>
+  </si>
+  <si>
+    <t>supplier and category list</t>
+  </si>
+  <si>
+    <t>/workflow</t>
+  </si>
+  <si>
+    <t>/companyprofile</t>
+  </si>
+  <si>
+    <t>Add company profile</t>
+  </si>
+  <si>
+    <t>/rolesandpermissions</t>
+  </si>
+  <si>
+    <t>/userrolesandpermissions</t>
+  </si>
+  <si>
+    <t>/groupslist</t>
+  </si>
+  <si>
+    <t>/getpreferenceslist</t>
   </si>
 </sst>
 </file>
@@ -367,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -414,11 +835,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -439,16 +910,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,9 +1261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,10 +1312,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -850,8 +1344,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -862,8 +1356,8 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -874,8 +1368,8 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
@@ -902,8 +1396,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -918,8 +1412,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -930,8 +1424,8 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
@@ -958,8 +1452,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -970,8 +1464,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -982,8 +1476,8 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
@@ -1008,8 +1502,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1024,8 +1518,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
@@ -1036,8 +1530,8 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1062,8 +1556,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1078,8 +1572,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1090,8 +1584,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
@@ -1118,8 +1612,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1134,8 +1628,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1150,8 +1644,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1162,8 +1656,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1174,10 +1668,10 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1206,8 +1700,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1218,8 +1712,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1230,8 +1724,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
@@ -1258,8 +1752,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
@@ -1274,8 +1768,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1286,8 +1780,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1314,8 +1808,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1326,8 +1820,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1338,8 +1832,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="3" t="s">
         <v>71</v>
       </c>
@@ -1364,8 +1858,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1380,8 +1874,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="1"/>
@@ -1392,8 +1886,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
@@ -1418,8 +1912,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1434,8 +1928,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1446,8 +1940,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1458,10 +1952,10 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -1490,8 +1984,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1502,8 +1996,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1514,8 +2008,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="3" t="s">
         <v>73</v>
       </c>
@@ -1542,8 +2036,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="1"/>
@@ -1558,8 +2052,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1570,8 +2064,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="3" t="s">
         <v>41</v>
       </c>
@@ -1598,8 +2092,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1610,8 +2104,8 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1622,8 +2116,8 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
@@ -1648,8 +2142,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1664,8 +2158,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="1"/>
@@ -1676,8 +2170,8 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="3" t="s">
         <v>74</v>
       </c>
@@ -1702,8 +2196,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1718,8 +2212,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1730,8 +2224,8 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="3"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1742,10 +2236,10 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -1774,8 +2268,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1786,8 +2280,8 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1798,8 +2292,8 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="3" t="s">
         <v>75</v>
       </c>
@@ -1826,8 +2320,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
       <c r="E58" s="1"/>
@@ -1842,8 +2336,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1854,8 +2348,8 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="3" t="s">
         <v>44</v>
       </c>
@@ -1882,8 +2376,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1894,8 +2388,8 @@
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1906,8 +2400,8 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>75</v>
       </c>
@@ -1932,8 +2426,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1948,8 +2442,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="1"/>
       <c r="D65" s="5"/>
       <c r="E65" s="1"/>
@@ -1960,8 +2454,8 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="3" t="s">
         <v>76</v>
       </c>
@@ -1986,8 +2480,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="3"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2002,8 +2496,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="3"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2014,8 +2508,8 @@
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2026,10 +2520,10 @@
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -2058,8 +2552,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2070,8 +2564,8 @@
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2082,8 +2576,8 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3" t="s">
         <v>77</v>
       </c>
@@ -2110,8 +2604,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
       <c r="E74" s="1"/>
@@ -2126,8 +2620,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2138,8 +2632,8 @@
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="3" t="s">
         <v>48</v>
       </c>
@@ -2166,8 +2660,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2178,8 +2672,8 @@
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2190,8 +2684,8 @@
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="3" t="s">
         <v>77</v>
       </c>
@@ -2216,8 +2710,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2232,8 +2726,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="1"/>
       <c r="D81" s="5"/>
       <c r="E81" s="1"/>
@@ -2244,8 +2738,8 @@
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="3" t="s">
         <v>78</v>
       </c>
@@ -2270,8 +2764,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2286,8 +2780,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="3"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2298,8 +2792,8 @@
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2310,10 +2804,10 @@
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -2342,8 +2836,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
-      <c r="B87" s="13"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2354,8 +2848,8 @@
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="12"/>
-      <c r="B88" s="13"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2366,8 +2860,8 @@
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="3" t="s">
         <v>79</v>
       </c>
@@ -2394,8 +2888,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="1"/>
@@ -2410,8 +2904,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2422,8 +2916,8 @@
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="3" t="s">
         <v>52</v>
       </c>
@@ -2450,8 +2944,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2462,8 +2956,8 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2474,8 +2968,8 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="3" t="s">
         <v>79</v>
       </c>
@@ -2500,8 +2994,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
-      <c r="B96" s="13"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2516,8 +3010,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="1"/>
       <c r="D97" s="5"/>
       <c r="E97" s="1"/>
@@ -2528,8 +3022,8 @@
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
-      <c r="B98" s="13"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="3" t="s">
         <v>80</v>
       </c>
@@ -2554,8 +3048,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
-      <c r="B99" s="13"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2570,8 +3064,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="3"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2582,8 +3076,8 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
-      <c r="B101" s="13"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="3"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2594,10 +3088,10 @@
       <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -2626,8 +3120,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -2638,8 +3132,8 @@
       <c r="J103" s="9"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -2650,8 +3144,8 @@
       <c r="J104" s="9"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="10" t="s">
         <v>81</v>
       </c>
@@ -2678,8 +3172,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="14"/>
-      <c r="B106" s="15"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -2694,8 +3188,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="14"/>
-      <c r="B107" s="15"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -2706,8 +3200,8 @@
       <c r="J107" s="9"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="10" t="s">
         <v>56</v>
       </c>
@@ -2734,8 +3228,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="14"/>
-      <c r="B109" s="15"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -2746,8 +3240,8 @@
       <c r="J109" s="9"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="14"/>
-      <c r="B110" s="15"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -2758,8 +3252,8 @@
       <c r="J110" s="9"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="14"/>
-      <c r="B111" s="15"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="10" t="s">
         <v>81</v>
       </c>
@@ -2784,8 +3278,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -2800,8 +3294,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="9"/>
       <c r="D113" s="11"/>
       <c r="E113" s="9"/>
@@ -2812,8 +3306,8 @@
       <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="14"/>
-      <c r="B114" s="15"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="10" t="s">
         <v>82</v>
       </c>
@@ -2838,8 +3332,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="14"/>
-      <c r="B115" s="15"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -2854,8 +3348,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="14"/>
-      <c r="B116" s="15"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -2866,8 +3360,8 @@
       <c r="J116" s="9"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -2878,10 +3372,10 @@
       <c r="J117" s="9"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C118" s="7" t="s">
@@ -2910,8 +3404,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="14"/>
-      <c r="B119" s="15"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -2922,8 +3416,8 @@
       <c r="J119" s="9"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="14"/>
-      <c r="B120" s="15"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -2934,8 +3428,8 @@
       <c r="J120" s="9"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="14"/>
-      <c r="B121" s="15"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="10" t="s">
         <v>83</v>
       </c>
@@ -2962,8 +3456,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="14"/>
-      <c r="B122" s="15"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="10"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -2978,8 +3472,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="14"/>
-      <c r="B123" s="15"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -2990,8 +3484,8 @@
       <c r="J123" s="9"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="14"/>
-      <c r="B124" s="15"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="10" t="s">
         <v>60</v>
       </c>
@@ -3018,8 +3512,8 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -3030,8 +3524,8 @@
       <c r="J125" s="9"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="14"/>
-      <c r="B126" s="15"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -3042,8 +3536,8 @@
       <c r="J126" s="9"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="10" t="s">
         <v>83</v>
       </c>
@@ -3068,8 +3562,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -3084,8 +3578,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="9"/>
       <c r="D129" s="11"/>
       <c r="E129" s="9"/>
@@ -3096,8 +3590,8 @@
       <c r="J129" s="9"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="14"/>
-      <c r="B130" s="15"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="10" t="s">
         <v>84</v>
       </c>
@@ -3122,8 +3616,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="14"/>
-      <c r="B131" s="15"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="10"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -3138,8 +3632,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="14"/>
-      <c r="B132" s="15"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="10"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -3150,8 +3644,8 @@
       <c r="J132" s="9"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="14"/>
-      <c r="B133" s="15"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="10"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -3162,10 +3656,10 @@
       <c r="J133" s="9"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -3194,8 +3688,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="14"/>
-      <c r="B135" s="15"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -3206,8 +3700,8 @@
       <c r="J135" s="9"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="14"/>
-      <c r="B136" s="15"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -3218,8 +3712,8 @@
       <c r="J136" s="9"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="14"/>
-      <c r="B137" s="15"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="10" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3740,8 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="10"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -3262,8 +3756,8 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15"/>
+      <c r="A139" s="17"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -3274,8 +3768,8 @@
       <c r="J139" s="9"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="10" t="s">
         <v>64</v>
       </c>
@@ -3302,8 +3796,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="14"/>
-      <c r="B141" s="15"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -3314,8 +3808,8 @@
       <c r="J141" s="9"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="14"/>
-      <c r="B142" s="15"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -3326,8 +3820,8 @@
       <c r="J142" s="9"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="14"/>
-      <c r="B143" s="15"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="10" t="s">
         <v>85</v>
       </c>
@@ -3352,8 +3846,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -3368,8 +3862,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="14"/>
-      <c r="B145" s="15"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="9"/>
       <c r="D145" s="11"/>
       <c r="E145" s="9"/>
@@ -3380,8 +3874,8 @@
       <c r="J145" s="9"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="14"/>
-      <c r="B146" s="15"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="10"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -3393,6 +3887,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A134:A146"/>
+    <mergeCell ref="B134:B146"/>
+    <mergeCell ref="A70:A85"/>
+    <mergeCell ref="B70:B85"/>
+    <mergeCell ref="A38:A53"/>
+    <mergeCell ref="B38:B53"/>
+    <mergeCell ref="A54:A69"/>
+    <mergeCell ref="B54:B69"/>
     <mergeCell ref="A86:A101"/>
     <mergeCell ref="B86:B101"/>
     <mergeCell ref="A102:A117"/>
@@ -3403,16 +3905,4201 @@
     <mergeCell ref="B2:B21"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="B22:B37"/>
-    <mergeCell ref="A134:A146"/>
-    <mergeCell ref="B134:B146"/>
-    <mergeCell ref="A70:A85"/>
-    <mergeCell ref="B70:B85"/>
-    <mergeCell ref="A38:A53"/>
-    <mergeCell ref="B38:B53"/>
-    <mergeCell ref="A54:A69"/>
-    <mergeCell ref="B54:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J245"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>200</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>200</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
+        <v>200</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1">
+        <v>200</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1">
+        <v>200</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1">
+        <v>200</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1">
+        <v>200</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
+        <v>200</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>200</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1">
+        <v>200</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1">
+        <v>200</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1">
+        <v>200</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1">
+        <v>200</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1">
+        <v>200</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>200</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="1">
+        <v>200</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="1">
+        <v>200</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1">
+        <v>200</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="1">
+        <v>200</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>200</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="8">
+        <v>200</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="9">
+        <v>200</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="9">
+        <v>200</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="9">
+        <v>200</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="9">
+        <v>200</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="9">
+        <v>200</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="9">
+        <v>200</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="8">
+        <v>200</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="9">
+        <v>200</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="9">
+        <v>200</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="9">
+        <v>200</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="9">
+        <v>200</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="8">
+        <v>200</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="22"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="22"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="22"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="22"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="22"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="22"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="22"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="22"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="22"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="22"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="22"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="22"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="22"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="22"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="22"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="22"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="22"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="22"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="22"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="22"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="22"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="22"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="22"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="22"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="22"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="22"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="22"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H127" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="22"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="22"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="22"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="22"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="22"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="22"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="22"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="22"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H143" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="22"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="22"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="22"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="22"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="22"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="22"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="22"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="22"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="22"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H154" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="22"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="22"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="22"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H157" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="22"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="22"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H159" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="22"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="22"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="22"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="22"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="22"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H165" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="22"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H167" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="22"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="22"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="22"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H171" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="22"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="22"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H173" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="22"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="22"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H175" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="22"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="22"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="22"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="22"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="22"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="22"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="22"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="22"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="22"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="22"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H189" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="22"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="22"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="22"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="22"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H193" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="22"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H195" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="22"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="22"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="22"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="22"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H199" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="22"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="22"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="22"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="22"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H205" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="22"/>
+      <c r="B206" s="24"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B207" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H207" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="22"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="22"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="22"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="22"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H211" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="22"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="22"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H213" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="22"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" s="16"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="8"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="22"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="22"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="22"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="22"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H220" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="22"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="22"/>
+      <c r="B222" s="24"/>
+      <c r="C222" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G222" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H222" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="22"/>
+      <c r="B223" s="24"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="22"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="22"/>
+      <c r="B225" s="24"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="22"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="22"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H228" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="22"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C230" s="16"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="8"/>
+      <c r="G230" s="8"/>
+      <c r="H230" s="8"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="22"/>
+      <c r="B231" s="24"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="22"/>
+      <c r="B232" s="24"/>
+      <c r="C232" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="22"/>
+      <c r="B233" s="24"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B234" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C234" s="16"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="8"/>
+      <c r="H234" s="8"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="22"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="22"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="22"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B238" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C238" s="16"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="8"/>
+      <c r="H238" s="8"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="22"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="22"/>
+      <c r="B240" s="24"/>
+      <c r="C240" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H240" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="22"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B242" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242" s="16"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="8"/>
+      <c r="G242" s="8"/>
+      <c r="H242" s="8"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="22"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="9"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="22"/>
+      <c r="B244" s="24"/>
+      <c r="C244" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H244" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="22"/>
+      <c r="B245" s="24"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A220:A227"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="A207:A214"/>
+    <mergeCell ref="B207:B214"/>
+    <mergeCell ref="A215:A219"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A52:A66"/>
+    <mergeCell ref="B52:B66"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="B67:B76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A79:A86"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B106:B115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="B154:B160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="A171:A180"/>
+    <mergeCell ref="B171:B180"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app-procurment-lambda-serverless/API_List_Procurment-lambda.xlsx
+++ b/app-procurment-lambda-serverless/API_List_Procurment-lambda.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="238">
   <si>
     <t>API</t>
   </si>
@@ -736,13 +736,28 @@
   </si>
   <si>
     <t>/getpreferenceslist</t>
+  </si>
+  <si>
+    <t>development status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>discuss</t>
+  </si>
+  <si>
+    <t>Still not in UI</t>
+  </si>
+  <si>
+    <t>Repetitive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,8 +788,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,8 +872,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -885,11 +990,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -915,16 +1087,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,20 +1109,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1261,9 +1456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,10 +1507,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1344,8 +1539,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1356,8 +1551,8 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1368,8 +1563,8 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
@@ -1396,8 +1591,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -1412,8 +1607,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1424,8 +1619,8 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1647,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1464,8 +1659,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1476,8 +1671,8 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
@@ -1502,8 +1697,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1518,8 +1713,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
@@ -1530,8 +1725,8 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1556,8 +1751,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1572,8 +1767,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1584,8 +1779,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
@@ -1612,8 +1807,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1628,8 +1823,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1644,8 +1839,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1656,8 +1851,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1668,10 +1863,10 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1700,8 +1895,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1712,8 +1907,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1724,8 +1919,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
@@ -1752,8 +1947,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
@@ -1768,8 +1963,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1780,8 +1975,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1808,8 +2003,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1820,8 +2015,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1832,8 +2027,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="3" t="s">
         <v>71</v>
       </c>
@@ -1858,8 +2053,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1874,8 +2069,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="1"/>
@@ -1886,8 +2081,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
@@ -1912,8 +2107,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1928,8 +2123,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1940,8 +2135,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1952,10 +2147,10 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -1984,8 +2179,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1996,8 +2191,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2008,8 +2203,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="3" t="s">
         <v>73</v>
       </c>
@@ -2036,8 +2231,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="1"/>
@@ -2052,8 +2247,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2064,8 +2259,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="3" t="s">
         <v>41</v>
       </c>
@@ -2092,8 +2287,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2104,8 +2299,8 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2116,8 +2311,8 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
@@ -2142,8 +2337,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2158,8 +2353,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="1"/>
@@ -2170,8 +2365,8 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="3" t="s">
         <v>74</v>
       </c>
@@ -2196,8 +2391,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2212,8 +2407,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2224,8 +2419,8 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="3"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2236,10 +2431,10 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -2268,8 +2463,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2280,8 +2475,8 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2292,8 +2487,8 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="3" t="s">
         <v>75</v>
       </c>
@@ -2320,8 +2515,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
       <c r="E58" s="1"/>
@@ -2336,8 +2531,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2348,8 +2543,8 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2376,8 +2571,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2388,8 +2583,8 @@
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2400,8 +2595,8 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="3" t="s">
         <v>75</v>
       </c>
@@ -2426,8 +2621,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2442,8 +2637,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="1"/>
       <c r="D65" s="5"/>
       <c r="E65" s="1"/>
@@ -2454,8 +2649,8 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="3" t="s">
         <v>76</v>
       </c>
@@ -2480,8 +2675,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="3"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2496,8 +2691,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="3"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2508,8 +2703,8 @@
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="3"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2520,10 +2715,10 @@
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -2552,8 +2747,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2564,8 +2759,8 @@
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2576,8 +2771,8 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="3" t="s">
         <v>77</v>
       </c>
@@ -2604,8 +2799,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
       <c r="E74" s="1"/>
@@ -2620,8 +2815,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2632,8 +2827,8 @@
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="3" t="s">
         <v>48</v>
       </c>
@@ -2660,8 +2855,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2672,8 +2867,8 @@
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2684,8 +2879,8 @@
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="3" t="s">
         <v>77</v>
       </c>
@@ -2710,8 +2905,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2726,8 +2921,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="1"/>
       <c r="D81" s="5"/>
       <c r="E81" s="1"/>
@@ -2738,8 +2933,8 @@
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="3" t="s">
         <v>78</v>
       </c>
@@ -2764,8 +2959,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2780,8 +2975,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="3"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2792,8 +2987,8 @@
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="3"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2804,10 +2999,10 @@
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -2836,8 +3031,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2848,8 +3043,8 @@
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2860,8 +3055,8 @@
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="3" t="s">
         <v>79</v>
       </c>
@@ -2888,8 +3083,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="1"/>
@@ -2904,8 +3099,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2916,8 +3111,8 @@
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="3" t="s">
         <v>52</v>
       </c>
@@ -2944,8 +3139,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2956,8 +3151,8 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2968,8 +3163,8 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="3" t="s">
         <v>79</v>
       </c>
@@ -2994,8 +3189,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3010,8 +3205,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="1"/>
       <c r="D97" s="5"/>
       <c r="E97" s="1"/>
@@ -3022,8 +3217,8 @@
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="19"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="3" t="s">
         <v>80</v>
       </c>
@@ -3048,8 +3243,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="3"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3064,8 +3259,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="3"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3076,8 +3271,8 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="3"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3088,10 +3283,10 @@
       <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -3120,8 +3315,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="17"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -3132,8 +3327,8 @@
       <c r="J103" s="9"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -3144,8 +3339,8 @@
       <c r="J104" s="9"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="10" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3367,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="17"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -3188,8 +3383,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -3200,8 +3395,8 @@
       <c r="J107" s="9"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="10" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3423,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="17"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -3240,8 +3435,8 @@
       <c r="J109" s="9"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -3252,8 +3447,8 @@
       <c r="J110" s="9"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="10" t="s">
         <v>81</v>
       </c>
@@ -3278,8 +3473,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -3294,8 +3489,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="9"/>
       <c r="D113" s="11"/>
       <c r="E113" s="9"/>
@@ -3306,8 +3501,8 @@
       <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="10" t="s">
         <v>82</v>
       </c>
@@ -3332,8 +3527,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="17"/>
-      <c r="B115" s="18"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -3348,8 +3543,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="17"/>
-      <c r="B116" s="18"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -3360,8 +3555,8 @@
       <c r="J116" s="9"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
-      <c r="B117" s="18"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -3372,10 +3567,10 @@
       <c r="J117" s="9"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C118" s="7" t="s">
@@ -3404,8 +3599,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
-      <c r="B119" s="18"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -3416,8 +3611,8 @@
       <c r="J119" s="9"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -3428,8 +3623,8 @@
       <c r="J120" s="9"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
-      <c r="B121" s="18"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="10" t="s">
         <v>83</v>
       </c>
@@ -3456,8 +3651,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="10"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -3472,8 +3667,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="17"/>
-      <c r="B123" s="18"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -3484,8 +3679,8 @@
       <c r="J123" s="9"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="10" t="s">
         <v>60</v>
       </c>
@@ -3512,8 +3707,8 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="17"/>
-      <c r="B125" s="18"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -3524,8 +3719,8 @@
       <c r="J125" s="9"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="17"/>
-      <c r="B126" s="18"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -3536,8 +3731,8 @@
       <c r="J126" s="9"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="17"/>
-      <c r="B127" s="18"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="10" t="s">
         <v>83</v>
       </c>
@@ -3562,8 +3757,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="17"/>
-      <c r="B128" s="18"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -3578,8 +3773,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="17"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="9"/>
       <c r="D129" s="11"/>
       <c r="E129" s="9"/>
@@ -3590,8 +3785,8 @@
       <c r="J129" s="9"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="10" t="s">
         <v>84</v>
       </c>
@@ -3616,8 +3811,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
-      <c r="B131" s="18"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="10"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -3632,8 +3827,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="17"/>
-      <c r="B132" s="18"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="24"/>
       <c r="C132" s="10"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -3644,8 +3839,8 @@
       <c r="J132" s="9"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="17"/>
-      <c r="B133" s="18"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="10"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -3656,10 +3851,10 @@
       <c r="J133" s="9"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -3688,8 +3883,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
-      <c r="B135" s="18"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -3700,8 +3895,8 @@
       <c r="J135" s="9"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -3712,8 +3907,8 @@
       <c r="J136" s="9"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
-      <c r="B137" s="18"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="10" t="s">
         <v>85</v>
       </c>
@@ -3740,8 +3935,8 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="17"/>
-      <c r="B138" s="18"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="10"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -3756,8 +3951,8 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
-      <c r="B139" s="18"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -3768,8 +3963,8 @@
       <c r="J139" s="9"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
-      <c r="B140" s="18"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="10" t="s">
         <v>64</v>
       </c>
@@ -3796,8 +3991,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="17"/>
-      <c r="B141" s="18"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -3808,8 +4003,8 @@
       <c r="J141" s="9"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="17"/>
-      <c r="B142" s="18"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -3820,8 +4015,8 @@
       <c r="J142" s="9"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="17"/>
-      <c r="B143" s="18"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="10" t="s">
         <v>85</v>
       </c>
@@ -3846,8 +4041,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="17"/>
-      <c r="B144" s="18"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -3862,8 +4057,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="17"/>
-      <c r="B145" s="18"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="9"/>
       <c r="D145" s="11"/>
       <c r="E145" s="9"/>
@@ -3874,8 +4069,8 @@
       <c r="J145" s="9"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="17"/>
-      <c r="B146" s="18"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="10"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -3887,6 +4082,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A118:A133"/>
+    <mergeCell ref="B118:B133"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="B22:B37"/>
     <mergeCell ref="A134:A146"/>
     <mergeCell ref="B134:B146"/>
     <mergeCell ref="A70:A85"/>
@@ -3899,12 +4100,6 @@
     <mergeCell ref="B86:B101"/>
     <mergeCell ref="A102:A117"/>
     <mergeCell ref="B102:B117"/>
-    <mergeCell ref="A118:A133"/>
-    <mergeCell ref="B118:B133"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B2:B21"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="B22:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3913,4193 +4108,3891 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.109375" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="51.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="H1" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="G2" s="18">
+        <v>200</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="3" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="3"/>
+      <c r="G4" s="18">
+        <v>200</v>
+      </c>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="3" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="G6" s="18">
+        <v>200</v>
+      </c>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="3" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="18">
+        <v>200</v>
+      </c>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="3" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G10" s="18">
+        <v>200</v>
+      </c>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="3"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1">
-        <v>200</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="G13" s="18">
+        <v>200</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="3" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="1">
-        <v>200</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="3"/>
+      <c r="G15" s="18">
+        <v>200</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="3" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>200</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="G17" s="18">
+        <v>200</v>
+      </c>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="3" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="18">
+        <v>200</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="3" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="1">
-        <v>200</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G21" s="18">
+        <v>200</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="3"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="G24" s="18">
+        <v>200</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="3" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="1">
-        <v>200</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="3"/>
+      <c r="G26" s="18">
+        <v>200</v>
+      </c>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="3" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>200</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="G28" s="18">
+        <v>200</v>
+      </c>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="3" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="1">
-        <v>200</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="18">
+        <v>200</v>
+      </c>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="3" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="1">
-        <v>200</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G32" s="18">
+        <v>200</v>
+      </c>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="3" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="1">
-        <v>200</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="G34" s="18">
+        <v>200</v>
+      </c>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="1">
-        <v>200</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="G36" s="18">
+        <v>200</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="3" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="1">
-        <v>200</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="3"/>
+      <c r="G38" s="18">
+        <v>200</v>
+      </c>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="3" t="s">
+      <c r="G39" s="18"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="1">
-        <v>200</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="G40" s="18">
+        <v>200</v>
+      </c>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="1">
-        <v>200</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="G42" s="18">
+        <v>200</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="3" t="s">
+      <c r="G43" s="18"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="1">
-        <v>200</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="3"/>
+      <c r="G44" s="18">
+        <v>200</v>
+      </c>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="G45" s="18"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="1">
-        <v>200</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="G46" s="18">
+        <v>200</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="3" t="s">
+      <c r="G47" s="18"/>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="1">
-        <v>200</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="3"/>
+      <c r="G48" s="18">
+        <v>200</v>
+      </c>
+      <c r="H48" s="29"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="3" t="s">
+      <c r="G49" s="18"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="1">
-        <v>200</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="G50" s="18">
+        <v>200</v>
+      </c>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+      <c r="G51" s="18"/>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>136</v>
       </c>
+      <c r="C52" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D52" s="8" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="8">
-        <v>200</v>
-      </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="19">
+        <v>200</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="34"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>138</v>
       </c>
+      <c r="E54" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="9">
-        <v>200</v>
-      </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="15"/>
+      <c r="G54" s="20">
+        <v>200</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="15" t="s">
+      <c r="G55" s="20"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="15" t="s">
         <v>140</v>
       </c>
+      <c r="C56" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D56" s="9" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="9">
-        <v>200</v>
-      </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="14"/>
+      <c r="G56" s="20">
+        <v>200</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="15" t="s">
+      <c r="G57" s="20"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
+      <c r="B58" s="15" t="s">
         <v>140</v>
       </c>
+      <c r="C58" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="9">
-        <v>200</v>
-      </c>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="15"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="20">
+        <v>200</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="15" t="s">
+      <c r="G59" s="20"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="15" t="s">
         <v>140</v>
       </c>
+      <c r="C60" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D60" s="9" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="9">
-        <v>200</v>
-      </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="G60" s="20">
+        <v>200</v>
+      </c>
+      <c r="H60" s="29"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="15" t="s">
+      <c r="G61" s="20"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="15" t="s">
         <v>143</v>
       </c>
+      <c r="C62" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D62" s="9" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="9">
-        <v>200</v>
-      </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
+      <c r="G62" s="20">
+        <v>200</v>
+      </c>
+      <c r="H62" s="29"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="15" t="s">
+      <c r="G63" s="20"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
+      <c r="B64" s="15" t="s">
         <v>143</v>
       </c>
+      <c r="C64" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D64" s="9" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="9">
-        <v>200</v>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="G64" s="20">
+        <v>200</v>
+      </c>
+      <c r="H64" s="29"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="10"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+      <c r="G66" s="20"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="34"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>144</v>
       </c>
+      <c r="C67" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D67" s="8" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="8">
-        <v>200</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="19">
+        <v>200</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="D69" s="8" t="s">
         <v>145</v>
       </c>
+      <c r="E69" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F69" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="9">
-        <v>200</v>
-      </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="15"/>
+      <c r="G69" s="20">
+        <v>200</v>
+      </c>
+      <c r="H69" s="29"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="23"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="15" t="s">
+      <c r="G70" s="20"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="23"/>
+      <c r="B71" s="15" t="s">
         <v>147</v>
       </c>
+      <c r="C71" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D71" s="9" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="9">
-        <v>200</v>
-      </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="14"/>
+      <c r="G71" s="20">
+        <v>200</v>
+      </c>
+      <c r="H71" s="29"/>
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="15" t="s">
+      <c r="G72" s="20"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="34"/>
+    </row>
+    <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="23"/>
+      <c r="B73" s="15" t="s">
         <v>147</v>
       </c>
+      <c r="C73" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D73" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="9">
-        <v>200</v>
-      </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="15"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="20">
+        <v>200</v>
+      </c>
+      <c r="H73" s="29"/>
+      <c r="I73" s="34"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="23"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="15" t="s">
+      <c r="G74" s="20"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="34"/>
+    </row>
+    <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="23"/>
+      <c r="B75" s="15" t="s">
         <v>147</v>
       </c>
+      <c r="C75" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D75" s="9" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="9">
-        <v>200</v>
-      </c>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="G75" s="20">
+        <v>200</v>
+      </c>
+      <c r="H75" s="29"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="23"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
+      <c r="G76" s="20"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="13" t="s">
+      <c r="B77" s="13" t="s">
         <v>151</v>
       </c>
+      <c r="C77" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D77" s="8" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="8">
-        <v>200</v>
-      </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="G77" s="19">
+        <v>200</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="23"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
+      <c r="G78" s="20"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="E79" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="3"/>
+      <c r="G79" s="18">
+        <v>200</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="3" t="s">
+      <c r="G80" s="18"/>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
+      <c r="G81" s="18">
+        <v>200</v>
+      </c>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="3" t="s">
+      <c r="G82" s="18"/>
+      <c r="H82" s="29"/>
+    </row>
+    <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="21"/>
+      <c r="B83" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C83" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="3"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="18">
+        <v>200</v>
+      </c>
+      <c r="H83" s="29"/>
+    </row>
+    <row r="84" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="3" t="s">
+      <c r="G84" s="18"/>
+      <c r="H84" s="29"/>
+    </row>
+    <row r="85" spans="1:8" s="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="21"/>
+      <c r="B85" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="25" t="s">
+      <c r="G85" s="18">
+        <v>200</v>
+      </c>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="86" spans="1:8" s="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="29"/>
+    </row>
+    <row r="87" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>157</v>
       </c>
+      <c r="E87" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F87" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G87" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="10"/>
+      <c r="G87" s="20">
+        <v>200</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="26"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="10"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="31"/>
+    </row>
+    <row r="89" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="26"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="10" t="s">
+      <c r="G89" s="20"/>
+      <c r="H89" s="31"/>
+    </row>
+    <row r="90" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="26"/>
+      <c r="B90" s="10" t="s">
         <v>158</v>
       </c>
+      <c r="C90" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D90" s="9" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="G90" s="20">
+        <v>200</v>
+      </c>
+      <c r="H90" s="31"/>
+    </row>
+    <row r="91" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="26"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="25" t="s">
+      <c r="G91" s="20"/>
+      <c r="H91" s="31"/>
+    </row>
+    <row r="92" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>160</v>
       </c>
+      <c r="C92" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D92" s="8" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G92" s="19">
+        <v>200</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="26"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="10" t="s">
+      <c r="D93" s="12"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="31"/>
+    </row>
+    <row r="94" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="26"/>
+      <c r="B94" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>161</v>
       </c>
+      <c r="E94" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F94" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="10"/>
+      <c r="G94" s="20">
+        <v>200</v>
+      </c>
+      <c r="H94" s="31"/>
+    </row>
+    <row r="95" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="26"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="10" t="s">
+      <c r="G95" s="20"/>
+      <c r="H95" s="31"/>
+    </row>
+    <row r="96" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="26"/>
+      <c r="B96" s="10" t="s">
         <v>163</v>
       </c>
+      <c r="C96" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D96" s="9" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G96" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
-      <c r="B97" s="24"/>
+      <c r="G96" s="20">
+        <v>200</v>
+      </c>
+      <c r="H96" s="31"/>
+    </row>
+    <row r="97" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="26"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="25" t="s">
+      <c r="G97" s="20"/>
+      <c r="H97" s="31"/>
+    </row>
+    <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B98" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="16" t="s">
+      <c r="B98" s="16" t="s">
         <v>165</v>
       </c>
+      <c r="C98" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D98" s="8" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G98" s="19">
+        <v>200</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="26"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="10" t="s">
+      <c r="D99" s="12"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="31"/>
+    </row>
+    <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="26"/>
+      <c r="B100" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="C100" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="E100" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F100" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="22"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="10"/>
+      <c r="G100" s="20">
+        <v>200</v>
+      </c>
+      <c r="H100" s="31"/>
+    </row>
+    <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="26"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="22"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="10" t="s">
+      <c r="G101" s="20"/>
+      <c r="H101" s="31"/>
+    </row>
+    <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="26"/>
+      <c r="B102" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="C102" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D102" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="22"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="10"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="20">
+        <v>200</v>
+      </c>
+      <c r="H102" s="31"/>
+    </row>
+    <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="26"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="25" t="s">
+      <c r="G103" s="20"/>
+      <c r="H103" s="31"/>
+    </row>
+    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B104" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C104" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="C104" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="D104" s="8" t="s">
         <v>171</v>
       </c>
+      <c r="E104" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F104" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G104" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="22"/>
-      <c r="B105" s="24"/>
+      <c r="G104" s="20">
+        <v>200</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="26"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
+      <c r="D105" s="12"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="30"/>
+    </row>
+    <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B106" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106" s="16" t="s">
+      <c r="B106" s="16" t="s">
         <v>172</v>
       </c>
+      <c r="C106" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D106" s="8" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="22"/>
-      <c r="B107" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G106" s="19">
+        <v>200</v>
+      </c>
+      <c r="H106" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="26"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="10" t="s">
+      <c r="D107" s="12"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="29"/>
+    </row>
+    <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="26"/>
+      <c r="B108" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="C108" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="D108" s="8" t="s">
         <v>173</v>
       </c>
+      <c r="E108" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F108" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G108" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="22"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="10"/>
+      <c r="G108" s="20">
+        <v>200</v>
+      </c>
+      <c r="H108" s="29"/>
+    </row>
+    <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="26"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="10" t="s">
+      <c r="G109" s="20"/>
+      <c r="H109" s="29"/>
+    </row>
+    <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="26"/>
+      <c r="B110" s="10" t="s">
         <v>175</v>
       </c>
+      <c r="C110" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D110" s="9" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G110" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H110" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
-      <c r="B111" s="24"/>
+      <c r="G110" s="20">
+        <v>200</v>
+      </c>
+      <c r="H110" s="29"/>
+    </row>
+    <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="26"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="10" t="s">
+      <c r="G111" s="20"/>
+      <c r="H111" s="29"/>
+    </row>
+    <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26"/>
+      <c r="B112" s="10" t="s">
         <v>175</v>
       </c>
+      <c r="C112" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D112" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="22"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="10"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="20">
+        <v>200</v>
+      </c>
+      <c r="H112" s="29"/>
+    </row>
+    <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="26"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="22"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="10" t="s">
+      <c r="G113" s="20"/>
+      <c r="H113" s="29"/>
+    </row>
+    <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="26"/>
+      <c r="B114" s="10" t="s">
         <v>175</v>
       </c>
+      <c r="C114" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D114" s="9" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="G114" s="20">
+        <v>200</v>
+      </c>
+      <c r="H114" s="29"/>
+    </row>
+    <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="26"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="21" t="s">
+      <c r="G115" s="20"/>
+      <c r="H115" s="29"/>
+    </row>
+    <row r="116" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B116" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="16" t="s">
+      <c r="B116" s="16" t="s">
         <v>98</v>
       </c>
+      <c r="C116" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D116" s="8" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H116" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="22"/>
-      <c r="B117" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G116" s="19">
+        <v>200</v>
+      </c>
+      <c r="H116" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="26"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="22"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="10" t="s">
+      <c r="D117" s="12"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="30"/>
+    </row>
+    <row r="118" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="26"/>
+      <c r="B118" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="C118" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="E118" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F118" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G118" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="10"/>
+      <c r="G118" s="20">
+        <v>200</v>
+      </c>
+      <c r="H118" s="30"/>
+    </row>
+    <row r="119" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="26"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="22"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="10" t="s">
+      <c r="G119" s="20"/>
+      <c r="H119" s="30"/>
+    </row>
+    <row r="120" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="26"/>
+      <c r="B120" s="10" t="s">
         <v>180</v>
       </c>
+      <c r="C120" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D120" s="9" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G120" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
-      <c r="B121" s="24"/>
+      <c r="G120" s="20">
+        <v>200</v>
+      </c>
+      <c r="H120" s="30"/>
+    </row>
+    <row r="121" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="26"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="22"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="10"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="30"/>
+    </row>
+    <row r="122" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A122" s="26"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="21" t="s">
+      <c r="G122" s="20"/>
+      <c r="H122" s="30"/>
+    </row>
+    <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="16" t="s">
+      <c r="B123" s="16" t="s">
         <v>99</v>
       </c>
+      <c r="C123" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D123" s="8" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="22"/>
-      <c r="B124" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G123" s="19">
+        <v>200</v>
+      </c>
+      <c r="H123" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="26"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="22"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="10" t="s">
+      <c r="D124" s="12"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="30"/>
+    </row>
+    <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="26"/>
+      <c r="B125" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="D125" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="E125" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F125" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G125" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H125" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="22"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="10"/>
+      <c r="G125" s="20">
+        <v>200</v>
+      </c>
+      <c r="H125" s="30"/>
+    </row>
+    <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="26"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="22"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="10" t="s">
+      <c r="G126" s="20"/>
+      <c r="H126" s="30"/>
+    </row>
+    <row r="127" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="26"/>
+      <c r="B127" s="10" t="s">
         <v>99</v>
       </c>
+      <c r="C127" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D127" s="9" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H127" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="22"/>
-      <c r="B128" s="24"/>
+      <c r="G127" s="20">
+        <v>200</v>
+      </c>
+      <c r="H127" s="30"/>
+    </row>
+    <row r="128" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="26"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="21" t="s">
+      <c r="G128" s="20"/>
+      <c r="H128" s="30"/>
+    </row>
+    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A129" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B129" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="B129" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="D129" s="8" t="s">
         <v>185</v>
       </c>
+      <c r="E129" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F129" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G129" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H129" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="22"/>
-      <c r="B130" s="24"/>
+      <c r="G129" s="20">
+        <v>200</v>
+      </c>
+      <c r="H129" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="26"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="21" t="s">
+      <c r="D130" s="12"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="30"/>
+    </row>
+    <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B131" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="10" t="s">
+      <c r="B131" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="C131" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="D131" s="8" t="s">
         <v>188</v>
       </c>
+      <c r="E131" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F131" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G131" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H131" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="22"/>
-      <c r="B132" s="24"/>
+      <c r="G131" s="20">
+        <v>200</v>
+      </c>
+      <c r="H131" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="26"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="21" t="s">
+      <c r="D132" s="12"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="30"/>
+    </row>
+    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A133" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B133" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="B133" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="C133" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="D133" s="8" t="s">
         <v>190</v>
       </c>
+      <c r="E133" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F133" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G133" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H133" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="22"/>
-      <c r="B134" s="24"/>
+      <c r="G133" s="20">
+        <v>200</v>
+      </c>
+      <c r="H133" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A134" s="26"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="21" t="s">
+      <c r="D134" s="12"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="32"/>
+    </row>
+    <row r="135" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B135" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>191</v>
       </c>
+      <c r="E135" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="F135" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G135" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="22"/>
-      <c r="B136" s="24"/>
+      <c r="G135" s="20">
+        <v>200</v>
+      </c>
+      <c r="H135" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="26"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="21" t="s">
+      <c r="D136" s="12"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="29"/>
+    </row>
+    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B137" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C137" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="C137" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="D137" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="E137" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F137" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G137" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H137" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="22"/>
-      <c r="B138" s="24"/>
+      <c r="G137" s="20">
+        <v>200</v>
+      </c>
+      <c r="H137" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="26"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="21" t="s">
+      <c r="D138" s="12"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="30"/>
+    </row>
+    <row r="139" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B139" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139" s="10" t="s">
+      <c r="B139" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="C139" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>196</v>
       </c>
+      <c r="E139" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F139" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G139" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H139" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="22"/>
-      <c r="B140" s="24"/>
+      <c r="G139" s="20">
+        <v>200</v>
+      </c>
+      <c r="H139" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="26"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="21" t="s">
+      <c r="D140" s="12"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="32"/>
+    </row>
+    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A141" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B141" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>198</v>
       </c>
+      <c r="C141" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D141" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G141" s="20">
+        <v>200</v>
+      </c>
+      <c r="H141" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="26"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="30"/>
+    </row>
+    <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" s="19">
+        <v>200</v>
+      </c>
+      <c r="H143" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="26"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="32"/>
+    </row>
+    <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="26"/>
+      <c r="B145" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="22"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H143" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="22"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="22"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>200</v>
+      <c r="D145" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G145" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="22"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="10"/>
+      <c r="G145" s="20">
+        <v>200</v>
+      </c>
+      <c r="H145" s="32"/>
+    </row>
+    <row r="146" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A146" s="26"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="21" t="s">
+      <c r="G146" s="20"/>
+      <c r="H146" s="32"/>
+    </row>
+    <row r="147" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B147" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" s="16" t="s">
+      <c r="B147" s="16" t="s">
         <v>202</v>
       </c>
+      <c r="C147" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D147" s="8" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H147" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="22"/>
-      <c r="B148" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G147" s="19">
+        <v>200</v>
+      </c>
+      <c r="H147" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="26"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="22"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="10" t="s">
+      <c r="D148" s="12"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="29"/>
+    </row>
+    <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="26"/>
+      <c r="B149" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="C149" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="D149" s="8" t="s">
         <v>203</v>
       </c>
+      <c r="E149" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F149" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G149" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H149" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="22"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="10"/>
+      <c r="G149" s="20">
+        <v>200</v>
+      </c>
+      <c r="H149" s="29"/>
+    </row>
+    <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="26"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="22"/>
-      <c r="B151" s="24"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="29"/>
+    </row>
+    <row r="151" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="26"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="22"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="10" t="s">
+      <c r="G151" s="20"/>
+      <c r="H151" s="29"/>
+    </row>
+    <row r="152" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="26"/>
+      <c r="B152" s="10" t="s">
         <v>202</v>
       </c>
+      <c r="C152" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D152" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H152" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="22"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="10"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" s="20">
+        <v>200</v>
+      </c>
+      <c r="H152" s="29"/>
+    </row>
+    <row r="153" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="26"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="21" t="s">
+      <c r="G153" s="20"/>
+      <c r="H153" s="29"/>
+    </row>
+    <row r="154" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B154" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" s="16" t="s">
+      <c r="B154" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="C154" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D154" s="8" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H154" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="22"/>
-      <c r="B155" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G154" s="19">
+        <v>200</v>
+      </c>
+      <c r="H154" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="26"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="22"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="10"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="32"/>
+    </row>
+    <row r="156" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="26"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="22"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="10" t="s">
+      <c r="G156" s="20"/>
+      <c r="H156" s="32"/>
+    </row>
+    <row r="157" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="26"/>
+      <c r="B157" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="C157" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D157" s="9" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G157" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H157" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="22"/>
-      <c r="B158" s="24"/>
+      <c r="G157" s="20">
+        <v>200</v>
+      </c>
+      <c r="H157" s="32"/>
+    </row>
+    <row r="158" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="26"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="22"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="10" t="s">
+      <c r="G158" s="20"/>
+      <c r="H158" s="32"/>
+    </row>
+    <row r="159" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="26"/>
+      <c r="B159" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="C159" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D159" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H159" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="22"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="10"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" s="20">
+        <v>200</v>
+      </c>
+      <c r="H159" s="32"/>
+    </row>
+    <row r="160" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="26"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="21" t="s">
+      <c r="G160" s="20"/>
+      <c r="H160" s="32"/>
+    </row>
+    <row r="161" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B161" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" s="16" t="s">
+      <c r="B161" s="16" t="s">
         <v>97</v>
       </c>
+      <c r="C161" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D161" s="8" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H161" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="22"/>
-      <c r="B162" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G161" s="19">
+        <v>200</v>
+      </c>
+      <c r="H161" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="26"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="22"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="10" t="s">
+      <c r="D162" s="12"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="30"/>
+    </row>
+    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="26"/>
+      <c r="B163" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="C163" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="D163" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="E163" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F163" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G163" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="22"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="10"/>
+      <c r="G163" s="20">
+        <v>200</v>
+      </c>
+      <c r="H163" s="30"/>
+    </row>
+    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="26"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="22"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="10" t="s">
+      <c r="G164" s="20"/>
+      <c r="H164" s="30"/>
+    </row>
+    <row r="165" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="26"/>
+      <c r="B165" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C165" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D165" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H165" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="22"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="10"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="20">
+        <v>200</v>
+      </c>
+      <c r="H165" s="30"/>
+    </row>
+    <row r="166" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="26"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="21" t="s">
+      <c r="G166" s="20"/>
+      <c r="H166" s="30"/>
+    </row>
+    <row r="167" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B167" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="16" t="s">
+      <c r="B167" s="16" t="s">
         <v>208</v>
       </c>
+      <c r="C167" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D167" s="8" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H167" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="22"/>
-      <c r="B168" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G167" s="19">
+        <v>200</v>
+      </c>
+      <c r="H167" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="26"/>
+      <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="22"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="10" t="s">
+      <c r="D168" s="12"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="29"/>
+    </row>
+    <row r="169" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="26"/>
+      <c r="B169" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="C169" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="D169" s="8" t="s">
         <v>209</v>
       </c>
+      <c r="E169" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="F169" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G169" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H169" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="22"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="10"/>
+      <c r="G169" s="20">
+        <v>200</v>
+      </c>
+      <c r="H169" s="29"/>
+    </row>
+    <row r="170" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="26"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="21" t="s">
+      <c r="G170" s="20"/>
+      <c r="H170" s="29"/>
+    </row>
+    <row r="171" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B171" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" s="10" t="s">
+      <c r="B171" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="C171" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D171" s="9" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G171" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H171" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="22"/>
-      <c r="B172" s="24"/>
+      <c r="G171" s="20">
+        <v>200</v>
+      </c>
+      <c r="H171" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="26"/>
+      <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="22"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="10" t="s">
+      <c r="G172" s="20"/>
+      <c r="H172" s="32"/>
+    </row>
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="26"/>
+      <c r="B173" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="C173" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D173" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H173" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="22"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="10"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G173" s="20">
+        <v>200</v>
+      </c>
+      <c r="H173" s="32"/>
+    </row>
+    <row r="174" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="26"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="22"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="10" t="s">
+      <c r="G174" s="20"/>
+      <c r="H174" s="32"/>
+    </row>
+    <row r="175" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="26"/>
+      <c r="B175" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="C175" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D175" s="9" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H175" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="22"/>
-      <c r="B176" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="G175" s="20">
+        <v>200</v>
+      </c>
+      <c r="H175" s="32"/>
+    </row>
+    <row r="176" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="26"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="22"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="22"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="32"/>
+    </row>
+    <row r="177" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A177" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G177" s="19">
+        <v>200</v>
+      </c>
+      <c r="H177" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A178" s="26"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="14"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="22"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="22"/>
-      <c r="B180" s="24"/>
-      <c r="C180" s="10"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="29"/>
+    </row>
+    <row r="179" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A179" s="26"/>
+      <c r="B179" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="20">
+        <v>200</v>
+      </c>
+      <c r="H179" s="29"/>
+    </row>
+    <row r="180" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A180" s="26"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="B181" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>211</v>
+      <c r="G180" s="20"/>
+      <c r="H180" s="29"/>
+    </row>
+    <row r="181" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D181" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="20">
+        <v>200</v>
+      </c>
+      <c r="H181" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A182" s="26"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="30"/>
+    </row>
+    <row r="183" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="20">
+        <v>200</v>
+      </c>
+      <c r="H183" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="26"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="30"/>
+    </row>
+    <row r="185" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C185" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="D185" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="E185" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G181" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H181" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="22"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="22"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D183" s="9" t="s">
+      <c r="F185" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G185" s="19">
+        <v>200</v>
+      </c>
+      <c r="H185" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="26"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="29"/>
+    </row>
+    <row r="187" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="26"/>
+      <c r="B187" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C187" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E183" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F183" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G183" s="9" t="s">
+      <c r="D187" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="22"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G185" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H185" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="22"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="9"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B187" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H187" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="22"/>
-      <c r="B188" s="24"/>
+      <c r="G187" s="20">
+        <v>200</v>
+      </c>
+      <c r="H187" s="29"/>
+    </row>
+    <row r="188" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="26"/>
+      <c r="B188" s="10"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="9"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="21" t="s">
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="29"/>
+    </row>
+    <row r="189" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="26"/>
+      <c r="B189" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B189" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H189" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="22"/>
-      <c r="B190" s="24"/>
+      <c r="C189" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G189" s="20">
+        <v>200</v>
+      </c>
+      <c r="H189" s="29"/>
+    </row>
+    <row r="190" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="26"/>
+      <c r="B190" s="10"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="22"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D191" s="9" t="s">
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="29"/>
+    </row>
+    <row r="191" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G191" s="19">
+        <v>200</v>
+      </c>
+      <c r="H191" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="26"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="30"/>
+    </row>
+    <row r="193" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="26"/>
+      <c r="B193" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C193" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E191" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F191" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G191" s="9" t="s">
+      <c r="D193" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H191" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="22"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="22"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H193" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="22"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="10"/>
+      <c r="G193" s="20">
+        <v>200</v>
+      </c>
+      <c r="H193" s="30"/>
+    </row>
+    <row r="194" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="26"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="21" t="s">
+      <c r="G194" s="20"/>
+      <c r="H194" s="30"/>
+    </row>
+    <row r="195" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="26"/>
+      <c r="B195" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B195" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H195" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="22"/>
-      <c r="B196" s="24"/>
+      <c r="C195" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G195" s="20">
+        <v>200</v>
+      </c>
+      <c r="H195" s="30"/>
+    </row>
+    <row r="196" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="26"/>
+      <c r="B196" s="10"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="14"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="9"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="22"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D197" s="9" t="s">
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="30"/>
+    </row>
+    <row r="197" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C197" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E197" s="8" t="s">
-        <v>200</v>
+      <c r="D197" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G197" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H197" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="22"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
+      <c r="G197" s="20">
+        <v>200</v>
+      </c>
+      <c r="H197" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="26"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="14"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="22"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>18</v>
+      <c r="G198" s="20"/>
+      <c r="H198" s="30"/>
+    </row>
+    <row r="199" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A199" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H199" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="22"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" s="20">
+        <v>200</v>
+      </c>
+      <c r="H199" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A200" s="26"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>217</v>
+      <c r="G200" s="20"/>
+      <c r="H200" s="30"/>
+    </row>
+    <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A201" s="26"/>
+      <c r="B201" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D201" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G201" s="20">
+        <v>200</v>
+      </c>
+      <c r="H201" s="30"/>
+    </row>
+    <row r="202" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A202" s="26"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="30"/>
+    </row>
+    <row r="203" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G203" s="19">
+        <v>200</v>
+      </c>
+      <c r="H203" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="26"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="30"/>
+    </row>
+    <row r="205" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="26"/>
+      <c r="B205" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C205" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E201" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F201" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G201" s="9" t="s">
+      <c r="D205" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F205" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H201" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="22"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="9"/>
-      <c r="H202" s="9"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F203" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G203" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H203" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="22"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="9"/>
-      <c r="H204" s="9"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="22"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G205" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H205" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="22"/>
-      <c r="B206" s="24"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="21" t="s">
+      <c r="G205" s="20">
+        <v>200</v>
+      </c>
+      <c r="H205" s="30"/>
+    </row>
+    <row r="206" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="26"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="30"/>
+    </row>
+    <row r="207" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="26"/>
+      <c r="B207" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B207" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G207" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H207" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="22"/>
-      <c r="B208" s="24"/>
+      <c r="C207" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="20">
+        <v>200</v>
+      </c>
+      <c r="H207" s="30"/>
+    </row>
+    <row r="208" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="26"/>
+      <c r="B208" s="10"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="14"/>
-      <c r="G208" s="9"/>
-      <c r="H208" s="9"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="22"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="10" t="s">
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="30"/>
+    </row>
+    <row r="209" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="26"/>
+      <c r="B209" s="10" t="s">
         <v>222</v>
       </c>
+      <c r="C209" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D209" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>205</v>
+        <v>223</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G209" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H209" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="22"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="G209" s="20">
+        <v>200</v>
+      </c>
+      <c r="H209" s="30"/>
+    </row>
+    <row r="210" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="26"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
-      <c r="G210" s="9"/>
-      <c r="H210" s="9"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="22"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>18</v>
+      <c r="G210" s="20"/>
+      <c r="H210" s="30"/>
+    </row>
+    <row r="211" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H211" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="22"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" s="20">
+        <v>200</v>
+      </c>
+      <c r="H211" s="30"/>
+    </row>
+    <row r="212" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="23"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="9"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="22"/>
-      <c r="B213" s="24"/>
-      <c r="C213" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E213" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F213" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G213" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H213" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="22"/>
-      <c r="B214" s="24"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="30"/>
+    </row>
+    <row r="213" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213" s="19">
+        <v>200</v>
+      </c>
+      <c r="H213" s="30"/>
+    </row>
+    <row r="214" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="26"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="14"/>
       <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
-      <c r="H214" s="9"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B215" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C215" s="16"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="22"/>
-      <c r="B216" s="24"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="30"/>
+    </row>
+    <row r="215" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="26"/>
+      <c r="B215" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" s="20">
+        <v>200</v>
+      </c>
+      <c r="H215" s="30"/>
+    </row>
+    <row r="216" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="26"/>
+      <c r="B216" s="10"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="14"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="22"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="10" t="s">
-        <v>224</v>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="30"/>
+    </row>
+    <row r="217" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="26"/>
+      <c r="B217" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>225</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E217" s="9"/>
       <c r="F217" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G217" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H217" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="22"/>
-      <c r="B218" s="24"/>
-      <c r="C218" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="G217" s="20">
+        <v>200</v>
+      </c>
+      <c r="H217" s="30"/>
+    </row>
+    <row r="218" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="26"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
-      <c r="H218" s="9"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="22"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
-      <c r="H219" s="9"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B220" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D220" s="8" t="s">
+      <c r="G218" s="20"/>
+      <c r="H218" s="30"/>
+    </row>
+    <row r="219" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C219" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E220" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F220" s="8" t="s">
+      <c r="D219" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E219" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G220" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H220" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="22"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="14"/>
-      <c r="G221" s="9"/>
-      <c r="H221" s="9"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="22"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D222" s="9" t="s">
+      <c r="F219" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G219" s="19">
+        <v>200</v>
+      </c>
+      <c r="H219" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="26"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="29"/>
+    </row>
+    <row r="221" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C221" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E222" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F222" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G222" s="9" t="s">
+      <c r="D221" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F221" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H222" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="22"/>
-      <c r="B223" s="24"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="9"/>
-      <c r="H223" s="9"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224" s="22"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
+      <c r="G221" s="20">
+        <v>200</v>
+      </c>
+      <c r="H221" s="30"/>
+    </row>
+    <row r="222" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="23"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="30"/>
+    </row>
+    <row r="223" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" s="20">
+        <v>200</v>
+      </c>
+      <c r="H223" s="30"/>
+    </row>
+    <row r="224" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="26"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="34"/>
+      <c r="E224" s="14"/>
       <c r="F224" s="9"/>
-      <c r="G224" s="9"/>
-      <c r="H224" s="9"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="22"/>
-      <c r="B225" s="24"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9"/>
-      <c r="H225" s="9"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="22"/>
-      <c r="B226" s="24"/>
-      <c r="C226" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="G224" s="20"/>
+      <c r="H224" s="30"/>
+    </row>
+    <row r="225" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" s="20">
+        <v>200</v>
+      </c>
+      <c r="H225" s="30"/>
+    </row>
+    <row r="226" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="26"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="34"/>
+      <c r="E226" s="14"/>
       <c r="F226" s="9"/>
-      <c r="G226" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H226" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="22"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
-      <c r="F227" s="9"/>
-      <c r="G227" s="9"/>
-      <c r="H227" s="9"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B228" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E228" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F228" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G228" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H228" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="22"/>
-      <c r="B229" s="24"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="9"/>
-      <c r="H229" s="9"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C230" s="16"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="22"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="14"/>
-      <c r="G231" s="9"/>
-      <c r="H231" s="9"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="22"/>
-      <c r="B232" s="24"/>
-      <c r="C232" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D232" s="9" t="s">
+      <c r="G226" s="20"/>
+      <c r="H226" s="30"/>
+    </row>
+    <row r="227" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C227" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E232" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F232" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G232" s="9" t="s">
+      <c r="D227" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H232" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="22"/>
-      <c r="B233" s="24"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B234" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C234" s="16"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="22"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="14"/>
-      <c r="G235" s="9"/>
-      <c r="H235" s="9"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="22"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E236" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F236" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G236" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H236" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="22"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="10"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="B238" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C238" s="16"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="22"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
-      <c r="E239" s="12"/>
-      <c r="F239" s="14"/>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="22"/>
-      <c r="B240" s="24"/>
-      <c r="C240" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G240" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H240" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="22"/>
-      <c r="B241" s="24"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B242" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C242" s="16"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="22"/>
-      <c r="B243" s="24"/>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="14"/>
-      <c r="G243" s="9"/>
-      <c r="H243" s="9"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="22"/>
-      <c r="B244" s="24"/>
-      <c r="C244" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D244" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E244" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F244" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G244" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H244" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="22"/>
-      <c r="B245" s="24"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="9"/>
-      <c r="E245" s="9"/>
-      <c r="F245" s="9"/>
-      <c r="G245" s="9"/>
-      <c r="H245" s="9"/>
+      <c r="G227" s="20">
+        <v>200</v>
+      </c>
+      <c r="H227" s="30"/>
+    </row>
+    <row r="228" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="37"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A220:A227"/>
-    <mergeCell ref="B220:B227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="A207:A214"/>
-    <mergeCell ref="B207:B214"/>
-    <mergeCell ref="A215:A219"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
+  <mergeCells count="85">
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="H191:H196"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="H199:H202"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="H221:H228"/>
+    <mergeCell ref="H203:H218"/>
+    <mergeCell ref="A203:A210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="A191:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:A202"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
     <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
     <mergeCell ref="A24:A35"/>
-    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A52:A66"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A77:A78"/>
     <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A52:A66"/>
-    <mergeCell ref="B52:B66"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A115"/>
     <mergeCell ref="A79:A86"/>
-    <mergeCell ref="B79:B86"/>
     <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
     <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="B106:B115"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
     <mergeCell ref="A116:A122"/>
-    <mergeCell ref="B116:B122"/>
     <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
     <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="H13:H23"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="H24:H35"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
     <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="B154:B160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="A171:A180"/>
-    <mergeCell ref="B171:B180"/>
+    <mergeCell ref="H79:H86"/>
+    <mergeCell ref="H92:H97"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H98:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="H52:H66"/>
+    <mergeCell ref="H67:H76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="H106:H115"/>
+    <mergeCell ref="H116:H122"/>
+    <mergeCell ref="H123:H128"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="H177:H180"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="H185:H190"/>
+    <mergeCell ref="H143:H146"/>
+    <mergeCell ref="H147:H153"/>
+    <mergeCell ref="H154:H160"/>
+    <mergeCell ref="H161:H166"/>
+    <mergeCell ref="H167:H170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app-procurment-lambda-serverless/API_List_Procurment-lambda.xlsx
+++ b/app-procurment-lambda-serverless/API_List_Procurment-lambda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="actual apis" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="275">
   <si>
     <t>API</t>
   </si>
@@ -751,13 +751,124 @@
   </si>
   <si>
     <t>Repetitive</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>Alternate</t>
+  </si>
+  <si>
+    <t>same as contact</t>
+  </si>
+  <si>
+    <t>/contact</t>
+  </si>
+  <si>
+    <t>/contact/{id}</t>
+  </si>
+  <si>
+    <t>/contact/deactivate/{id}</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>Add new conatct</t>
+  </si>
+  <si>
+    <t>Update existing conatct</t>
+  </si>
+  <si>
+    <t>Deactivate conatct</t>
+  </si>
+  <si>
+    <t>NOTIFICATION</t>
+  </si>
+  <si>
+    <t>/notification</t>
+  </si>
+  <si>
+    <t>/notification/{id}</t>
+  </si>
+  <si>
+    <t>/notification/deactivate/{id}</t>
+  </si>
+  <si>
+    <t>Add new notification</t>
+  </si>
+  <si>
+    <t>Update existing notification</t>
+  </si>
+  <si>
+    <t>Deactivate notification</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>/department/{id}</t>
+  </si>
+  <si>
+    <t>/department/deactivate/{id}</t>
+  </si>
+  <si>
+    <t>Add new department</t>
+  </si>
+  <si>
+    <t>Update existing department</t>
+  </si>
+  <si>
+    <t>Deactivate department</t>
+  </si>
+  <si>
+    <t>KANBAN</t>
+  </si>
+  <si>
+    <t>/kanban</t>
+  </si>
+  <si>
+    <t>/kanban/{id}</t>
+  </si>
+  <si>
+    <t>/kanban/deactivate/{id}</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>/location</t>
+  </si>
+  <si>
+    <t>/location/{id}</t>
+  </si>
+  <si>
+    <t>/location/deactivate/{id}</t>
+  </si>
+  <si>
+    <t>Add new location</t>
+  </si>
+  <si>
+    <t>Update existing location</t>
+  </si>
+  <si>
+    <t>Deactivate location</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>/email</t>
+  </si>
+  <si>
+    <t>Send email to one or more candidate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,8 +969,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,8 +1010,18 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1053,15 +1181,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1091,11 +1230,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1103,17 +1253,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1121,23 +1274,31 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1454,11 +1615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,7 +1627,7 @@
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.21875" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
@@ -1507,10 +1668,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1539,8 +1700,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1551,8 +1712,8 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1563,8 +1724,8 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
@@ -1591,8 +1752,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -1607,8 +1768,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1619,8 +1780,8 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1647,8 +1808,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1659,8 +1820,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1671,8 +1832,8 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
@@ -1697,8 +1858,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1713,8 +1874,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
@@ -1725,8 +1886,8 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1751,8 +1912,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1767,8 +1928,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1779,8 +1940,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
@@ -1807,8 +1968,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1823,8 +1984,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1839,8 +2000,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1851,8 +2012,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1863,10 +2024,10 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1895,8 +2056,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1907,8 +2068,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1919,8 +2080,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
@@ -1947,8 +2108,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
@@ -1963,8 +2124,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1975,8 +2136,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
@@ -2003,8 +2164,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2015,8 +2176,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2027,8 +2188,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="3" t="s">
         <v>71</v>
       </c>
@@ -2053,8 +2214,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2069,8 +2230,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="1"/>
@@ -2081,8 +2242,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
@@ -2107,8 +2268,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2123,8 +2284,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2135,8 +2296,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2147,10 +2308,10 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2179,8 +2340,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2191,8 +2352,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2203,8 +2364,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="3" t="s">
         <v>73</v>
       </c>
@@ -2231,8 +2392,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="1"/>
@@ -2247,8 +2408,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2259,8 +2420,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="3" t="s">
         <v>41</v>
       </c>
@@ -2287,8 +2448,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2299,8 +2460,8 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2311,8 +2472,8 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
@@ -2337,8 +2498,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2353,8 +2514,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="1"/>
@@ -2365,8 +2526,8 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="3" t="s">
         <v>74</v>
       </c>
@@ -2391,8 +2552,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2407,8 +2568,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2419,8 +2580,8 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="3"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2431,10 +2592,10 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -2463,8 +2624,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2475,8 +2636,8 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2487,8 +2648,8 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="3" t="s">
         <v>75</v>
       </c>
@@ -2515,8 +2676,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
       <c r="E58" s="1"/>
@@ -2531,8 +2692,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2543,8 +2704,8 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2732,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2583,8 +2744,8 @@
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2595,8 +2756,8 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="3" t="s">
         <v>75</v>
       </c>
@@ -2621,8 +2782,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2637,8 +2798,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="1"/>
       <c r="D65" s="5"/>
       <c r="E65" s="1"/>
@@ -2649,8 +2810,8 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="3" t="s">
         <v>76</v>
       </c>
@@ -2675,8 +2836,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="3"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2691,8 +2852,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="3"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2703,8 +2864,8 @@
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="3"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2715,10 +2876,10 @@
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -2747,8 +2908,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2759,8 +2920,8 @@
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2771,8 +2932,8 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="3" t="s">
         <v>77</v>
       </c>
@@ -2799,8 +2960,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
       <c r="E74" s="1"/>
@@ -2815,8 +2976,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2827,8 +2988,8 @@
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="3" t="s">
         <v>48</v>
       </c>
@@ -2855,8 +3016,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2867,8 +3028,8 @@
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2879,8 +3040,8 @@
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="3" t="s">
         <v>77</v>
       </c>
@@ -2905,8 +3066,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2921,8 +3082,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="1"/>
       <c r="D81" s="5"/>
       <c r="E81" s="1"/>
@@ -2933,8 +3094,8 @@
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="3" t="s">
         <v>78</v>
       </c>
@@ -2959,8 +3120,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2975,8 +3136,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="3"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2987,8 +3148,8 @@
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="3"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2999,10 +3160,10 @@
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -3031,8 +3192,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3043,8 +3204,8 @@
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3055,8 +3216,8 @@
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="31"/>
       <c r="C89" s="3" t="s">
         <v>79</v>
       </c>
@@ -3083,8 +3244,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="1"/>
@@ -3099,8 +3260,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="31"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3111,8 +3272,8 @@
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="3" t="s">
         <v>52</v>
       </c>
@@ -3139,8 +3300,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="22"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3151,8 +3312,8 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3163,8 +3324,8 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="3" t="s">
         <v>79</v>
       </c>
@@ -3189,8 +3350,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3205,8 +3366,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="1"/>
       <c r="D97" s="5"/>
       <c r="E97" s="1"/>
@@ -3217,8 +3378,8 @@
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="3" t="s">
         <v>80</v>
       </c>
@@ -3243,8 +3404,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="3"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3259,8 +3420,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="3"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3271,8 +3432,8 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="21"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="3"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3283,10 +3444,10 @@
       <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -3315,8 +3476,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -3327,8 +3488,8 @@
       <c r="J103" s="9"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="23"/>
-      <c r="B104" s="24"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -3339,8 +3500,8 @@
       <c r="J104" s="9"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="10" t="s">
         <v>81</v>
       </c>
@@ -3367,8 +3528,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
-      <c r="B106" s="24"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -3383,8 +3544,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -3395,8 +3556,8 @@
       <c r="J107" s="9"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="23"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="10" t="s">
         <v>56</v>
       </c>
@@ -3423,8 +3584,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
-      <c r="B109" s="24"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -3435,8 +3596,8 @@
       <c r="J109" s="9"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="23"/>
-      <c r="B110" s="24"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -3447,8 +3608,8 @@
       <c r="J110" s="9"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="10" t="s">
         <v>81</v>
       </c>
@@ -3473,8 +3634,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="23"/>
-      <c r="B112" s="24"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -3489,8 +3650,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="9"/>
       <c r="D113" s="11"/>
       <c r="E113" s="9"/>
@@ -3501,8 +3662,8 @@
       <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="23"/>
-      <c r="B114" s="24"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="29"/>
       <c r="C114" s="10" t="s">
         <v>82</v>
       </c>
@@ -3527,8 +3688,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
-      <c r="B115" s="24"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -3543,8 +3704,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="23"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -3555,8 +3716,8 @@
       <c r="J116" s="9"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="23"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -3567,10 +3728,10 @@
       <c r="J117" s="9"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C118" s="7" t="s">
@@ -3599,8 +3760,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="23"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="29"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -3611,8 +3772,8 @@
       <c r="J119" s="9"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="23"/>
-      <c r="B120" s="24"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="29"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -3623,8 +3784,8 @@
       <c r="J120" s="9"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="23"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="29"/>
       <c r="C121" s="10" t="s">
         <v>83</v>
       </c>
@@ -3651,8 +3812,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="23"/>
-      <c r="B122" s="24"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="10"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -3667,8 +3828,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="23"/>
-      <c r="B123" s="24"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -3679,8 +3840,8 @@
       <c r="J123" s="9"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="23"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="10" t="s">
         <v>60</v>
       </c>
@@ -3707,8 +3868,8 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="23"/>
-      <c r="B125" s="24"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="29"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -3719,8 +3880,8 @@
       <c r="J125" s="9"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="23"/>
-      <c r="B126" s="24"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="29"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -3731,8 +3892,8 @@
       <c r="J126" s="9"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="23"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="29"/>
       <c r="C127" s="10" t="s">
         <v>83</v>
       </c>
@@ -3757,8 +3918,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="23"/>
-      <c r="B128" s="24"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="29"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -3773,8 +3934,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="29"/>
       <c r="C129" s="9"/>
       <c r="D129" s="11"/>
       <c r="E129" s="9"/>
@@ -3785,8 +3946,8 @@
       <c r="J129" s="9"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="23"/>
-      <c r="B130" s="24"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="29"/>
       <c r="C130" s="10" t="s">
         <v>84</v>
       </c>
@@ -3811,8 +3972,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="23"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="10"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -3827,8 +3988,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="23"/>
-      <c r="B132" s="24"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="10"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -3839,8 +4000,8 @@
       <c r="J132" s="9"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
-      <c r="B133" s="24"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="10"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -3851,10 +4012,10 @@
       <c r="J133" s="9"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -3883,8 +4044,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="29"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -3895,8 +4056,8 @@
       <c r="J135" s="9"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="23"/>
-      <c r="B136" s="24"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="29"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -3907,8 +4068,8 @@
       <c r="J136" s="9"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="23"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="29"/>
       <c r="C137" s="10" t="s">
         <v>85</v>
       </c>
@@ -3935,8 +4096,8 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="23"/>
-      <c r="B138" s="24"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="10"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -3951,8 +4112,8 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="23"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -3963,8 +4124,8 @@
       <c r="J139" s="9"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="23"/>
-      <c r="B140" s="24"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="10" t="s">
         <v>64</v>
       </c>
@@ -3991,8 +4152,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
-      <c r="B141" s="24"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="29"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -4003,8 +4164,8 @@
       <c r="J141" s="9"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="23"/>
-      <c r="B142" s="24"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="29"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -4015,8 +4176,8 @@
       <c r="J142" s="9"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="23"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="29"/>
       <c r="C143" s="10" t="s">
         <v>85</v>
       </c>
@@ -4041,8 +4202,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="23"/>
-      <c r="B144" s="24"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -4057,8 +4218,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="23"/>
-      <c r="B145" s="24"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="9"/>
       <c r="D145" s="11"/>
       <c r="E145" s="9"/>
@@ -4069,8 +4230,8 @@
       <c r="J145" s="9"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="23"/>
-      <c r="B146" s="24"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="29"/>
       <c r="C146" s="10"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -4080,14 +4241,1528 @@
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
     </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" s="8">
+        <v>200</v>
+      </c>
+      <c r="I147" s="8">
+        <v>400</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="28"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="28"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="28"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H150" s="9">
+        <v>200</v>
+      </c>
+      <c r="I150" s="9">
+        <v>400</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="28"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9">
+        <v>404</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="28"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="28"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="9">
+        <v>200</v>
+      </c>
+      <c r="I153" s="9">
+        <v>400</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="28"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="28"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="28"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H156" s="9">
+        <v>200</v>
+      </c>
+      <c r="I156" s="9">
+        <v>400</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="28"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9">
+        <v>404</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="28"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="28"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H159" s="9">
+        <v>200</v>
+      </c>
+      <c r="I159" s="9">
+        <v>400</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="28"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9">
+        <v>404</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="28"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="28"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B163" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H163" s="8">
+        <v>200</v>
+      </c>
+      <c r="I163" s="8">
+        <v>400</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="28"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="28"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="28"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H166" s="9">
+        <v>200</v>
+      </c>
+      <c r="I166" s="9">
+        <v>400</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="28"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9">
+        <v>404</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="28"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="28"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="9">
+        <v>200</v>
+      </c>
+      <c r="I169" s="9">
+        <v>400</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="28"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="28"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="28"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H172" s="9">
+        <v>200</v>
+      </c>
+      <c r="I172" s="9">
+        <v>400</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="28"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9">
+        <v>404</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="28"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="28"/>
+      <c r="B175" s="29"/>
+      <c r="C175" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H175" s="9">
+        <v>200</v>
+      </c>
+      <c r="I175" s="9">
+        <v>400</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="28"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9">
+        <v>404</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="28"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="28"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H179" s="8">
+        <v>200</v>
+      </c>
+      <c r="I179" s="8">
+        <v>400</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="28"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="28"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="28"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H182" s="9">
+        <v>200</v>
+      </c>
+      <c r="I182" s="9">
+        <v>400</v>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="28"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9">
+        <v>404</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="28"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="28"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="9">
+        <v>200</v>
+      </c>
+      <c r="I185" s="9">
+        <v>400</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="28"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="28"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="28"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H188" s="9">
+        <v>200</v>
+      </c>
+      <c r="I188" s="9">
+        <v>400</v>
+      </c>
+      <c r="J188" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="28"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9">
+        <v>404</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="28"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="28"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H191" s="9">
+        <v>200</v>
+      </c>
+      <c r="I191" s="9">
+        <v>400</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="28"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9">
+        <v>404</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="28"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="28"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B195" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H195" s="8">
+        <v>200</v>
+      </c>
+      <c r="I195" s="8">
+        <v>400</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="28"/>
+      <c r="B196" s="29"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="28"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="28"/>
+      <c r="B198" s="29"/>
+      <c r="C198" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H198" s="9">
+        <v>200</v>
+      </c>
+      <c r="I198" s="9">
+        <v>400</v>
+      </c>
+      <c r="J198" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="28"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9">
+        <v>404</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="28"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="28"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="9">
+        <v>200</v>
+      </c>
+      <c r="I201" s="9">
+        <v>400</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="28"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="9"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="28"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="28"/>
+      <c r="B204" s="29"/>
+      <c r="C204" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H204" s="9">
+        <v>200</v>
+      </c>
+      <c r="I204" s="9">
+        <v>400</v>
+      </c>
+      <c r="J204" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="28"/>
+      <c r="B205" s="29"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
+      <c r="I205" s="9">
+        <v>404</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="28"/>
+      <c r="B206" s="29"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="28"/>
+      <c r="B207" s="29"/>
+      <c r="C207" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H207" s="9">
+        <v>200</v>
+      </c>
+      <c r="I207" s="9">
+        <v>400</v>
+      </c>
+      <c r="J207" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="28"/>
+      <c r="B208" s="29"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9">
+        <v>404</v>
+      </c>
+      <c r="J208" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="28"/>
+      <c r="B209" s="29"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="28"/>
+      <c r="B210" s="29"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H211" s="8">
+        <v>200</v>
+      </c>
+      <c r="I211" s="8">
+        <v>400</v>
+      </c>
+      <c r="J211" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="28"/>
+      <c r="B212" s="29"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="9"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="28"/>
+      <c r="B213" s="29"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="28"/>
+      <c r="B214" s="29"/>
+      <c r="C214" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H214" s="9">
+        <v>200</v>
+      </c>
+      <c r="I214" s="9">
+        <v>400</v>
+      </c>
+      <c r="J214" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="28"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9">
+        <v>404</v>
+      </c>
+      <c r="J215" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="28"/>
+      <c r="B216" s="29"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="28"/>
+      <c r="B217" s="29"/>
+      <c r="C217" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217" s="9">
+        <v>200</v>
+      </c>
+      <c r="I217" s="9">
+        <v>400</v>
+      </c>
+      <c r="J217" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="28"/>
+      <c r="B218" s="29"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="28"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="28"/>
+      <c r="B220" s="29"/>
+      <c r="C220" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H220" s="9">
+        <v>200</v>
+      </c>
+      <c r="I220" s="9">
+        <v>400</v>
+      </c>
+      <c r="J220" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="28"/>
+      <c r="B221" s="29"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9">
+        <v>404</v>
+      </c>
+      <c r="J221" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="28"/>
+      <c r="B222" s="29"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="28"/>
+      <c r="B223" s="29"/>
+      <c r="C223" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H223" s="9">
+        <v>200</v>
+      </c>
+      <c r="I223" s="9">
+        <v>400</v>
+      </c>
+      <c r="J223" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" s="28"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9">
+        <v>404</v>
+      </c>
+      <c r="J224" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" s="28"/>
+      <c r="B225" s="29"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+      <c r="I225" s="9"/>
+      <c r="J225" s="9"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="28"/>
+      <c r="B226" s="29"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="9"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B227" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" s="8">
+        <v>200</v>
+      </c>
+      <c r="I227" s="8">
+        <v>400</v>
+      </c>
+      <c r="J227" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="28"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="9"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="28"/>
+      <c r="B229" s="29"/>
+      <c r="C229" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229" s="9">
+        <v>200</v>
+      </c>
+      <c r="I229" s="9">
+        <v>400</v>
+      </c>
+      <c r="J229" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="28"/>
+      <c r="B230" s="29"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A118:A133"/>
-    <mergeCell ref="B118:B133"/>
+  <mergeCells count="30">
+    <mergeCell ref="A211:A226"/>
+    <mergeCell ref="B211:B226"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="A163:A178"/>
+    <mergeCell ref="B163:B178"/>
+    <mergeCell ref="A179:A194"/>
+    <mergeCell ref="B179:B194"/>
+    <mergeCell ref="A195:A210"/>
+    <mergeCell ref="B195:B210"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="B2:B21"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="B22:B37"/>
+    <mergeCell ref="A147:A162"/>
+    <mergeCell ref="B147:B162"/>
     <mergeCell ref="A134:A146"/>
     <mergeCell ref="B134:B146"/>
     <mergeCell ref="A70:A85"/>
@@ -4100,6 +5775,8 @@
     <mergeCell ref="B86:B101"/>
     <mergeCell ref="A102:A117"/>
     <mergeCell ref="B102:B117"/>
+    <mergeCell ref="A118:A133"/>
+    <mergeCell ref="B118:B133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4110,8 +5787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4123,8 +5800,8 @@
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9" style="36" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4149,13 +5826,15 @@
       <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="25" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4176,21 +5855,21 @@
       <c r="G2" s="18">
         <v>200</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="29"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
@@ -4209,20 +5888,20 @@
       <c r="G4" s="18">
         <v>200</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="29"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="3" t="s">
         <v>102</v>
       </c>
@@ -4241,20 +5920,20 @@
       <c r="G6" s="18">
         <v>200</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="29"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>102</v>
       </c>
@@ -4271,20 +5950,20 @@
       <c r="G8" s="18">
         <v>200</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="29"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3" t="s">
         <v>102</v>
       </c>
@@ -4303,30 +5982,30 @@
       <c r="G10" s="18">
         <v>200</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="29"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="29"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4347,21 +6026,21 @@
       <c r="G13" s="18">
         <v>200</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="29"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -4380,20 +6059,20 @@
       <c r="G15" s="18">
         <v>200</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
@@ -4412,20 +6091,20 @@
       <c r="G17" s="18">
         <v>200</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="29"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
@@ -4442,20 +6121,20 @@
       <c r="G19" s="18">
         <v>200</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="29"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
@@ -4474,30 +6153,30 @@
       <c r="G21" s="18">
         <v>200</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="29"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="29"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4518,22 +6197,22 @@
       <c r="G24" s="18">
         <v>200</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="29"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
@@ -4552,20 +6231,20 @@
       <c r="G26" s="18">
         <v>200</v>
       </c>
-      <c r="H26" s="29"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="29"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="3" t="s">
         <v>117</v>
       </c>
@@ -4584,20 +6263,20 @@
       <c r="G28" s="18">
         <v>200</v>
       </c>
-      <c r="H28" s="29"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="29"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="3" t="s">
         <v>117</v>
       </c>
@@ -4614,20 +6293,20 @@
       <c r="G30" s="18">
         <v>200</v>
       </c>
-      <c r="H30" s="29"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="29"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="3" t="s">
         <v>117</v>
       </c>
@@ -4646,20 +6325,20 @@
       <c r="G32" s="18">
         <v>200</v>
       </c>
-      <c r="H32" s="29"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="3" t="s">
         <v>120</v>
       </c>
@@ -4678,20 +6357,20 @@
       <c r="G34" s="18">
         <v>200</v>
       </c>
-      <c r="H34" s="29"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="30"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="30" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4712,22 +6391,22 @@
       <c r="G36" s="18">
         <v>200</v>
       </c>
-      <c r="H36" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="H36" s="40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="30"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="30"/>
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -4746,20 +6425,20 @@
       <c r="G38" s="18">
         <v>200</v>
       </c>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="H38" s="40"/>
+    </row>
+    <row r="39" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="30"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="30"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="30"/>
       <c r="B40" s="3" t="s">
         <v>126</v>
       </c>
@@ -4778,20 +6457,20 @@
       <c r="G40" s="18">
         <v>200</v>
       </c>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="30"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="18"/>
-      <c r="H41" s="30"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
         <v>128</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4812,22 +6491,22 @@
       <c r="G42" s="18">
         <v>200</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="30"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="3" t="s">
         <v>95</v>
       </c>
@@ -4846,20 +6525,20 @@
       <c r="G44" s="18">
         <v>200</v>
       </c>
-      <c r="H44" s="30"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="30"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="30" t="s">
         <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -4880,21 +6559,21 @@
       <c r="G46" s="18">
         <v>200</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="29"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="3" t="s">
         <v>133</v>
       </c>
@@ -4913,20 +6592,20 @@
       <c r="G48" s="18">
         <v>200</v>
       </c>
-      <c r="H48" s="29"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="29"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="3" t="s">
         <v>134</v>
       </c>
@@ -4945,20 +6624,20 @@
       <c r="G50" s="18">
         <v>200</v>
       </c>
-      <c r="H50" s="29"/>
+      <c r="H50" s="35"/>
     </row>
     <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="29"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -4979,24 +6658,24 @@
       <c r="G52" s="19">
         <v>200</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="I52" s="34"/>
+      <c r="I52" s="27"/>
     </row>
     <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="14"/>
       <c r="C53" s="9"/>
       <c r="D53" s="12"/>
       <c r="E53" s="14"/>
       <c r="F53" s="9"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="34"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="27"/>
     </row>
     <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="15" t="s">
         <v>136</v>
       </c>
@@ -5015,22 +6694,22 @@
       <c r="G54" s="20">
         <v>200</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="27"/>
     </row>
     <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="15"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="20"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="34"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="15" t="s">
         <v>140</v>
       </c>
@@ -5049,22 +6728,22 @@
       <c r="G56" s="20">
         <v>200</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="34"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="14"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="34"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="15" t="s">
         <v>140</v>
       </c>
@@ -5081,22 +6760,22 @@
       <c r="G58" s="20">
         <v>200</v>
       </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="34"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="27"/>
     </row>
     <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="15"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="20"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="34"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="15" t="s">
         <v>140</v>
       </c>
@@ -5115,22 +6794,22 @@
       <c r="G60" s="20">
         <v>200</v>
       </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="34"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="27"/>
     </row>
     <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="34"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="15" t="s">
         <v>143</v>
       </c>
@@ -5149,22 +6828,22 @@
       <c r="G62" s="20">
         <v>200</v>
       </c>
-      <c r="H62" s="29"/>
-      <c r="I62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="11"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="34"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="27"/>
     </row>
     <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="15" t="s">
         <v>143</v>
       </c>
@@ -5183,33 +6862,33 @@
       <c r="G64" s="20">
         <v>200</v>
       </c>
-      <c r="H64" s="29"/>
-      <c r="I64" s="34"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="27"/>
     </row>
     <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="10"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="20"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="34"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="27"/>
     </row>
     <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="10"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="34"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="27"/>
     </row>
     <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -5230,24 +6909,24 @@
       <c r="G67" s="19">
         <v>200</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="I67" s="34"/>
+      <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="14"/>
       <c r="C68" s="9"/>
       <c r="D68" s="12"/>
       <c r="E68" s="14"/>
       <c r="F68" s="9"/>
       <c r="G68" s="20"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="34"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="15" t="s">
         <v>144</v>
       </c>
@@ -5266,22 +6945,22 @@
       <c r="G69" s="20">
         <v>200</v>
       </c>
-      <c r="H69" s="29"/>
-      <c r="I69" s="34"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="27"/>
     </row>
     <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="15"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="20"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="34"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="27"/>
     </row>
     <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="15" t="s">
         <v>147</v>
       </c>
@@ -5300,22 +6979,22 @@
       <c r="G71" s="20">
         <v>200</v>
       </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="34"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="27"/>
     </row>
     <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="14"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="20"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="34"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="27"/>
     </row>
     <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="15" t="s">
         <v>147</v>
       </c>
@@ -5332,22 +7011,22 @@
       <c r="G73" s="20">
         <v>200</v>
       </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="34"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="27"/>
     </row>
     <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="15"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="20"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="34"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="15" t="s">
         <v>147</v>
       </c>
@@ -5366,22 +7045,22 @@
       <c r="G75" s="20">
         <v>200</v>
       </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="34"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="27"/>
     </row>
     <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="10"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="34"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="27"/>
     </row>
     <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B77" s="13" t="s">
@@ -5402,24 +7081,26 @@
       <c r="G77" s="19">
         <v>200</v>
       </c>
-      <c r="H77" s="30" t="s">
+      <c r="H77" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="I77" s="34"/>
+      <c r="I77" s="32" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="20"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="34"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="32"/>
     </row>
     <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="30" t="s">
         <v>48</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -5440,22 +7121,22 @@
       <c r="G79" s="18">
         <v>200</v>
       </c>
-      <c r="H79" s="29" t="s">
+      <c r="H79" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="3"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="29"/>
-    </row>
-    <row r="81" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
+      <c r="H80" s="35"/>
+    </row>
+    <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="30"/>
       <c r="B81" s="3" t="s">
         <v>77</v>
       </c>
@@ -5474,20 +7155,20 @@
       <c r="G81" s="18">
         <v>200</v>
       </c>
-      <c r="H81" s="29"/>
-    </row>
-    <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
+      <c r="H81" s="35"/>
+    </row>
+    <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="30"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="18"/>
-      <c r="H82" s="29"/>
-    </row>
-    <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
+      <c r="H82" s="35"/>
+    </row>
+    <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="30"/>
       <c r="B83" s="3" t="s">
         <v>77</v>
       </c>
@@ -5504,20 +7185,20 @@
       <c r="G83" s="18">
         <v>200</v>
       </c>
-      <c r="H83" s="29"/>
-    </row>
-    <row r="84" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
+      <c r="H83" s="35"/>
+    </row>
+    <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="30"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="18"/>
-      <c r="H84" s="29"/>
-    </row>
-    <row r="85" spans="1:8" s="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
+      <c r="H84" s="35"/>
+    </row>
+    <row r="85" spans="1:9" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="30"/>
       <c r="B85" s="3" t="s">
         <v>155</v>
       </c>
@@ -5536,20 +7217,22 @@
       <c r="G85" s="18">
         <v>200</v>
       </c>
-      <c r="H85" s="29"/>
-    </row>
-    <row r="86" spans="1:8" s="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="1:9" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="30"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="18"/>
-      <c r="H86" s="29"/>
-    </row>
-    <row r="87" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
+      <c r="H86" s="35"/>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="42" t="s">
         <v>156</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -5570,32 +7253,37 @@
       <c r="G87" s="20">
         <v>200</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="H87" s="41" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
+      <c r="I87" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
       <c r="B88" s="10"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="20"/>
-      <c r="H88" s="31"/>
-    </row>
-    <row r="89" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="33"/>
+    </row>
+    <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="39"/>
       <c r="B89" s="10"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="20"/>
-      <c r="H89" s="31"/>
-    </row>
-    <row r="90" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="33"/>
+    </row>
+    <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
       <c r="B90" s="10" t="s">
         <v>158</v>
       </c>
@@ -5614,20 +7302,22 @@
       <c r="G90" s="20">
         <v>200</v>
       </c>
-      <c r="H90" s="31"/>
-    </row>
-    <row r="91" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="26"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="33"/>
+    </row>
+    <row r="91" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="39"/>
       <c r="B91" s="10"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="20"/>
-      <c r="H91" s="31"/>
-    </row>
-    <row r="92" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="27" t="s">
+      <c r="H91" s="41"/>
+      <c r="I91" s="33"/>
+    </row>
+    <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="42" t="s">
         <v>160</v>
       </c>
       <c r="B92" s="16" t="s">
@@ -5648,22 +7338,26 @@
       <c r="G92" s="19">
         <v>200</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H92" s="41" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="26"/>
+      <c r="I92" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="12"/>
       <c r="E93" s="14"/>
       <c r="F93" s="9"/>
       <c r="G93" s="20"/>
-      <c r="H93" s="31"/>
-    </row>
-    <row r="94" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="33"/>
+    </row>
+    <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="39"/>
       <c r="B94" s="10" t="s">
         <v>160</v>
       </c>
@@ -5682,20 +7376,22 @@
       <c r="G94" s="20">
         <v>200</v>
       </c>
-      <c r="H94" s="31"/>
-    </row>
-    <row r="95" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="26"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="33"/>
+    </row>
+    <row r="95" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="39"/>
       <c r="B95" s="10"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="20"/>
-      <c r="H95" s="31"/>
-    </row>
-    <row r="96" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="26"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="33"/>
+    </row>
+    <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="39"/>
       <c r="B96" s="10" t="s">
         <v>163</v>
       </c>
@@ -5714,20 +7410,22 @@
       <c r="G96" s="20">
         <v>200</v>
       </c>
-      <c r="H96" s="31"/>
-    </row>
-    <row r="97" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="26"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="33"/>
+    </row>
+    <row r="97" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="20"/>
-      <c r="H97" s="31"/>
-    </row>
-    <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="27" t="s">
+      <c r="H97" s="41"/>
+      <c r="I97" s="33"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="42" t="s">
         <v>165</v>
       </c>
       <c r="B98" s="16" t="s">
@@ -5748,22 +7446,26 @@
       <c r="G98" s="19">
         <v>200</v>
       </c>
-      <c r="H98" s="31" t="s">
+      <c r="H98" s="41" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="26"/>
+      <c r="I98" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="39"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="12"/>
       <c r="E99" s="14"/>
       <c r="F99" s="9"/>
       <c r="G99" s="20"/>
-      <c r="H99" s="31"/>
-    </row>
-    <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="26"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="33"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="39"/>
       <c r="B100" s="10" t="s">
         <v>165</v>
       </c>
@@ -5782,20 +7484,22 @@
       <c r="G100" s="20">
         <v>200</v>
       </c>
-      <c r="H100" s="31"/>
-    </row>
-    <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="26"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="33"/>
+    </row>
+    <row r="101" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="39"/>
       <c r="B101" s="10"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="20"/>
-      <c r="H101" s="31"/>
-    </row>
-    <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="33"/>
+    </row>
+    <row r="102" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="39"/>
       <c r="B102" s="10" t="s">
         <v>168</v>
       </c>
@@ -5812,20 +7516,22 @@
       <c r="G102" s="20">
         <v>200</v>
       </c>
-      <c r="H102" s="31"/>
-    </row>
-    <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="26"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="33"/>
+    </row>
+    <row r="103" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="39"/>
       <c r="B103" s="10"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="20"/>
-      <c r="H103" s="31"/>
-    </row>
-    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="27" t="s">
+      <c r="H103" s="41"/>
+      <c r="I103" s="33"/>
+    </row>
+    <row r="104" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="42" t="s">
         <v>170</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -5846,22 +7552,22 @@
       <c r="G104" s="20">
         <v>200</v>
       </c>
-      <c r="H104" s="30" t="s">
+      <c r="H104" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="26"/>
+    <row r="105" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="39"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="12"/>
       <c r="E105" s="14"/>
       <c r="F105" s="9"/>
       <c r="G105" s="20"/>
-      <c r="H105" s="30"/>
-    </row>
-    <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="25" t="s">
+      <c r="H105" s="36"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="38" t="s">
         <v>172</v>
       </c>
       <c r="B106" s="16" t="s">
@@ -5882,22 +7588,22 @@
       <c r="G106" s="19">
         <v>200</v>
       </c>
-      <c r="H106" s="29" t="s">
+      <c r="H106" s="35" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="26"/>
+    <row r="107" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="39"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="12"/>
       <c r="E107" s="14"/>
       <c r="F107" s="9"/>
       <c r="G107" s="20"/>
-      <c r="H107" s="29"/>
-    </row>
-    <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="26"/>
+      <c r="H107" s="35"/>
+    </row>
+    <row r="108" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="39"/>
       <c r="B108" s="10" t="s">
         <v>172</v>
       </c>
@@ -5916,20 +7622,20 @@
       <c r="G108" s="20">
         <v>200</v>
       </c>
-      <c r="H108" s="29"/>
-    </row>
-    <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="26"/>
+      <c r="H108" s="35"/>
+    </row>
+    <row r="109" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="39"/>
       <c r="B109" s="10"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="20"/>
-      <c r="H109" s="29"/>
-    </row>
-    <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="26"/>
+      <c r="H109" s="35"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="39"/>
       <c r="B110" s="10" t="s">
         <v>175</v>
       </c>
@@ -5948,20 +7654,20 @@
       <c r="G110" s="20">
         <v>200</v>
       </c>
-      <c r="H110" s="29"/>
-    </row>
-    <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="26"/>
+      <c r="H110" s="35"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="39"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="20"/>
-      <c r="H111" s="29"/>
-    </row>
-    <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="26"/>
+      <c r="H111" s="35"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="39"/>
       <c r="B112" s="10" t="s">
         <v>175</v>
       </c>
@@ -5978,20 +7684,20 @@
       <c r="G112" s="20">
         <v>200</v>
       </c>
-      <c r="H112" s="29"/>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="26"/>
+      <c r="A113" s="39"/>
       <c r="B113" s="10"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="20"/>
-      <c r="H113" s="29"/>
+      <c r="H113" s="35"/>
     </row>
     <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="26"/>
+      <c r="A114" s="39"/>
       <c r="B114" s="10" t="s">
         <v>175</v>
       </c>
@@ -6010,20 +7716,20 @@
       <c r="G114" s="20">
         <v>200</v>
       </c>
-      <c r="H114" s="29"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="26"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="10"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="20"/>
-      <c r="H115" s="29"/>
+      <c r="H115" s="35"/>
     </row>
     <row r="116" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="38" t="s">
         <v>98</v>
       </c>
       <c r="B116" s="16" t="s">
@@ -6044,22 +7750,22 @@
       <c r="G116" s="19">
         <v>200</v>
       </c>
-      <c r="H116" s="30" t="s">
+      <c r="H116" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="26"/>
+      <c r="A117" s="39"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="12"/>
       <c r="E117" s="14"/>
       <c r="F117" s="9"/>
       <c r="G117" s="20"/>
-      <c r="H117" s="30"/>
+      <c r="H117" s="36"/>
     </row>
     <row r="118" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="26"/>
+      <c r="A118" s="39"/>
       <c r="B118" s="10" t="s">
         <v>98</v>
       </c>
@@ -6078,20 +7784,20 @@
       <c r="G118" s="20">
         <v>200</v>
       </c>
-      <c r="H118" s="30"/>
+      <c r="H118" s="36"/>
     </row>
     <row r="119" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="26"/>
+      <c r="A119" s="39"/>
       <c r="B119" s="10"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="20"/>
-      <c r="H119" s="30"/>
+      <c r="H119" s="36"/>
     </row>
     <row r="120" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="26"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="10" t="s">
         <v>180</v>
       </c>
@@ -6110,30 +7816,30 @@
       <c r="G120" s="20">
         <v>200</v>
       </c>
-      <c r="H120" s="30"/>
+      <c r="H120" s="36"/>
     </row>
     <row r="121" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="26"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="20"/>
-      <c r="H121" s="30"/>
+      <c r="H121" s="36"/>
     </row>
     <row r="122" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="26"/>
+      <c r="A122" s="39"/>
       <c r="B122" s="10"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="20"/>
-      <c r="H122" s="30"/>
+      <c r="H122" s="36"/>
     </row>
     <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="38" t="s">
         <v>99</v>
       </c>
       <c r="B123" s="16" t="s">
@@ -6154,22 +7860,22 @@
       <c r="G123" s="19">
         <v>200</v>
       </c>
-      <c r="H123" s="30" t="s">
-        <v>235</v>
+      <c r="H123" s="37" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="26"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="12"/>
       <c r="E124" s="14"/>
       <c r="F124" s="9"/>
       <c r="G124" s="20"/>
-      <c r="H124" s="30"/>
+      <c r="H124" s="37"/>
     </row>
     <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="26"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="10" t="s">
         <v>99</v>
       </c>
@@ -6188,20 +7894,20 @@
       <c r="G125" s="20">
         <v>200</v>
       </c>
-      <c r="H125" s="30"/>
+      <c r="H125" s="37"/>
     </row>
     <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="26"/>
+      <c r="A126" s="39"/>
       <c r="B126" s="10"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="20"/>
-      <c r="H126" s="30"/>
+      <c r="H126" s="37"/>
     </row>
     <row r="127" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="26"/>
+      <c r="A127" s="39"/>
       <c r="B127" s="10" t="s">
         <v>99</v>
       </c>
@@ -6220,20 +7926,20 @@
       <c r="G127" s="20">
         <v>200</v>
       </c>
-      <c r="H127" s="30"/>
+      <c r="H127" s="37"/>
     </row>
     <row r="128" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="26"/>
+      <c r="A128" s="39"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="20"/>
-      <c r="H128" s="30"/>
+      <c r="H128" s="37"/>
     </row>
     <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="38" t="s">
         <v>96</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -6254,22 +7960,22 @@
       <c r="G129" s="20">
         <v>200</v>
       </c>
-      <c r="H129" s="30" t="s">
+      <c r="H129" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="26"/>
+      <c r="A130" s="39"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="12"/>
       <c r="E130" s="14"/>
       <c r="F130" s="9"/>
       <c r="G130" s="20"/>
-      <c r="H130" s="30"/>
+      <c r="H130" s="36"/>
     </row>
     <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="38" t="s">
         <v>186</v>
       </c>
       <c r="B131" s="10" t="s">
@@ -6290,22 +7996,22 @@
       <c r="G131" s="20">
         <v>200</v>
       </c>
-      <c r="H131" s="30" t="s">
+      <c r="H131" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="26"/>
+      <c r="A132" s="39"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="12"/>
       <c r="E132" s="14"/>
       <c r="F132" s="9"/>
       <c r="G132" s="20"/>
-      <c r="H132" s="30"/>
+      <c r="H132" s="36"/>
     </row>
     <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="38" t="s">
         <v>189</v>
       </c>
       <c r="B133" s="10" t="s">
@@ -6326,22 +8032,22 @@
       <c r="G133" s="20">
         <v>200</v>
       </c>
-      <c r="H133" s="32" t="s">
+      <c r="H133" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="26"/>
+      <c r="A134" s="39"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="12"/>
       <c r="E134" s="14"/>
       <c r="F134" s="9"/>
       <c r="G134" s="20"/>
-      <c r="H134" s="32"/>
+      <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="38" t="s">
         <v>93</v>
       </c>
       <c r="B135" s="10" t="s">
@@ -6362,22 +8068,22 @@
       <c r="G135" s="20">
         <v>200</v>
       </c>
-      <c r="H135" s="29" t="s">
+      <c r="H135" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="26"/>
+      <c r="A136" s="39"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="12"/>
       <c r="E136" s="14"/>
       <c r="F136" s="9"/>
       <c r="G136" s="20"/>
-      <c r="H136" s="29"/>
+      <c r="H136" s="35"/>
     </row>
     <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="38" t="s">
         <v>193</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -6398,22 +8104,22 @@
       <c r="G137" s="20">
         <v>200</v>
       </c>
-      <c r="H137" s="30" t="s">
+      <c r="H137" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="26"/>
+      <c r="A138" s="39"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="12"/>
       <c r="E138" s="14"/>
       <c r="F138" s="9"/>
       <c r="G138" s="20"/>
-      <c r="H138" s="30"/>
+      <c r="H138" s="36"/>
     </row>
     <row r="139" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="38" t="s">
         <v>195</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -6434,22 +8140,22 @@
       <c r="G139" s="20">
         <v>200</v>
       </c>
-      <c r="H139" s="32" t="s">
+      <c r="H139" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="26"/>
+      <c r="A140" s="39"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="12"/>
       <c r="E140" s="14"/>
       <c r="F140" s="9"/>
       <c r="G140" s="20"/>
-      <c r="H140" s="32"/>
+      <c r="H140" s="34"/>
     </row>
     <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="38" t="s">
         <v>197</v>
       </c>
       <c r="B141" s="10" t="s">
@@ -6470,22 +8176,22 @@
       <c r="G141" s="20">
         <v>200</v>
       </c>
-      <c r="H141" s="30" t="s">
+      <c r="H141" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="26"/>
+      <c r="A142" s="39"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="12"/>
       <c r="E142" s="14"/>
       <c r="F142" s="9"/>
       <c r="G142" s="20"/>
-      <c r="H142" s="30"/>
+      <c r="H142" s="36"/>
     </row>
     <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="38" t="s">
         <v>199</v>
       </c>
       <c r="B143" s="16" t="s">
@@ -6506,22 +8212,22 @@
       <c r="G143" s="19">
         <v>200</v>
       </c>
-      <c r="H143" s="32" t="s">
+      <c r="H143" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="26"/>
+      <c r="A144" s="39"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="12"/>
       <c r="E144" s="14"/>
       <c r="F144" s="9"/>
       <c r="G144" s="20"/>
-      <c r="H144" s="32"/>
+      <c r="H144" s="34"/>
     </row>
     <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="26"/>
+      <c r="A145" s="39"/>
       <c r="B145" s="10" t="s">
         <v>199</v>
       </c>
@@ -6540,20 +8246,20 @@
       <c r="G145" s="20">
         <v>200</v>
       </c>
-      <c r="H145" s="32"/>
+      <c r="H145" s="34"/>
     </row>
     <row r="146" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146" s="26"/>
+      <c r="A146" s="39"/>
       <c r="B146" s="10"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="20"/>
-      <c r="H146" s="32"/>
+      <c r="H146" s="34"/>
     </row>
     <row r="147" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="38" t="s">
         <v>202</v>
       </c>
       <c r="B147" s="16" t="s">
@@ -6574,22 +8280,22 @@
       <c r="G147" s="19">
         <v>200</v>
       </c>
-      <c r="H147" s="29" t="s">
+      <c r="H147" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="26"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="12"/>
       <c r="E148" s="14"/>
       <c r="F148" s="9"/>
       <c r="G148" s="20"/>
-      <c r="H148" s="29"/>
+      <c r="H148" s="35"/>
     </row>
     <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="10" t="s">
         <v>202</v>
       </c>
@@ -6608,30 +8314,30 @@
       <c r="G149" s="20">
         <v>200</v>
       </c>
-      <c r="H149" s="29"/>
+      <c r="H149" s="35"/>
     </row>
     <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="26"/>
+      <c r="A150" s="39"/>
       <c r="B150" s="10"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="20"/>
-      <c r="H150" s="29"/>
+      <c r="H150" s="35"/>
     </row>
     <row r="151" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="26"/>
+      <c r="A151" s="39"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="20"/>
-      <c r="H151" s="29"/>
+      <c r="H151" s="35"/>
     </row>
     <row r="152" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="26"/>
+      <c r="A152" s="39"/>
       <c r="B152" s="10" t="s">
         <v>202</v>
       </c>
@@ -6648,20 +8354,20 @@
       <c r="G152" s="20">
         <v>200</v>
       </c>
-      <c r="H152" s="29"/>
+      <c r="H152" s="35"/>
     </row>
     <row r="153" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="26"/>
+      <c r="A153" s="39"/>
       <c r="B153" s="10"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="20"/>
-      <c r="H153" s="29"/>
+      <c r="H153" s="35"/>
     </row>
     <row r="154" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B154" s="16" t="s">
@@ -6682,32 +8388,32 @@
       <c r="G154" s="19">
         <v>200</v>
       </c>
-      <c r="H154" s="32" t="s">
+      <c r="H154" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="26"/>
+      <c r="A155" s="39"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="12"/>
       <c r="E155" s="14"/>
       <c r="F155" s="9"/>
       <c r="G155" s="20"/>
-      <c r="H155" s="32"/>
+      <c r="H155" s="34"/>
     </row>
     <row r="156" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="26"/>
+      <c r="A156" s="39"/>
       <c r="B156" s="10"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="20"/>
-      <c r="H156" s="32"/>
+      <c r="H156" s="34"/>
     </row>
     <row r="157" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="26"/>
+      <c r="A157" s="39"/>
       <c r="B157" s="10" t="s">
         <v>69</v>
       </c>
@@ -6726,20 +8432,20 @@
       <c r="G157" s="20">
         <v>200</v>
       </c>
-      <c r="H157" s="32"/>
+      <c r="H157" s="34"/>
     </row>
     <row r="158" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="26"/>
+      <c r="A158" s="39"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="20"/>
-      <c r="H158" s="32"/>
+      <c r="H158" s="34"/>
     </row>
     <row r="159" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="26"/>
+      <c r="A159" s="39"/>
       <c r="B159" s="10" t="s">
         <v>69</v>
       </c>
@@ -6756,20 +8462,20 @@
       <c r="G159" s="20">
         <v>200</v>
       </c>
-      <c r="H159" s="32"/>
+      <c r="H159" s="34"/>
     </row>
     <row r="160" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="26"/>
+      <c r="A160" s="39"/>
       <c r="B160" s="10"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="20"/>
-      <c r="H160" s="32"/>
+      <c r="H160" s="34"/>
     </row>
     <row r="161" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="38" t="s">
         <v>97</v>
       </c>
       <c r="B161" s="16" t="s">
@@ -6790,22 +8496,22 @@
       <c r="G161" s="19">
         <v>200</v>
       </c>
-      <c r="H161" s="30" t="s">
+      <c r="H161" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="26"/>
+      <c r="A162" s="39"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="12"/>
       <c r="E162" s="14"/>
       <c r="F162" s="9"/>
       <c r="G162" s="20"/>
-      <c r="H162" s="30"/>
+      <c r="H162" s="36"/>
     </row>
     <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="26"/>
+      <c r="A163" s="39"/>
       <c r="B163" s="10" t="s">
         <v>97</v>
       </c>
@@ -6824,20 +8530,20 @@
       <c r="G163" s="20">
         <v>200</v>
       </c>
-      <c r="H163" s="30"/>
+      <c r="H163" s="36"/>
     </row>
     <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="26"/>
+      <c r="A164" s="39"/>
       <c r="B164" s="10"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="20"/>
-      <c r="H164" s="30"/>
+      <c r="H164" s="36"/>
     </row>
     <row r="165" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
+      <c r="A165" s="39"/>
       <c r="B165" s="10" t="s">
         <v>97</v>
       </c>
@@ -6854,20 +8560,20 @@
       <c r="G165" s="20">
         <v>200</v>
       </c>
-      <c r="H165" s="30"/>
+      <c r="H165" s="36"/>
     </row>
     <row r="166" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="26"/>
+      <c r="A166" s="39"/>
       <c r="B166" s="10"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="20"/>
-      <c r="H166" s="30"/>
+      <c r="H166" s="36"/>
     </row>
     <row r="167" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="38" t="s">
         <v>208</v>
       </c>
       <c r="B167" s="16" t="s">
@@ -6888,22 +8594,22 @@
       <c r="G167" s="19">
         <v>200</v>
       </c>
-      <c r="H167" s="29" t="s">
+      <c r="H167" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="26"/>
+      <c r="A168" s="39"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="12"/>
       <c r="E168" s="14"/>
       <c r="F168" s="9"/>
       <c r="G168" s="20"/>
-      <c r="H168" s="29"/>
+      <c r="H168" s="35"/>
     </row>
     <row r="169" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="26"/>
+      <c r="A169" s="39"/>
       <c r="B169" s="10" t="s">
         <v>208</v>
       </c>
@@ -6922,20 +8628,20 @@
       <c r="G169" s="20">
         <v>200</v>
       </c>
-      <c r="H169" s="29"/>
+      <c r="H169" s="35"/>
     </row>
     <row r="170" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
+      <c r="A170" s="39"/>
       <c r="B170" s="10"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="20"/>
-      <c r="H170" s="29"/>
+      <c r="H170" s="35"/>
     </row>
     <row r="171" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="38" t="s">
         <v>199</v>
       </c>
       <c r="B171" s="10" t="s">
@@ -6956,22 +8662,22 @@
       <c r="G171" s="20">
         <v>200</v>
       </c>
-      <c r="H171" s="32" t="s">
+      <c r="H171" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="26"/>
+      <c r="A172" s="39"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="20"/>
-      <c r="H172" s="32"/>
+      <c r="H172" s="34"/>
     </row>
     <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="26"/>
+      <c r="A173" s="39"/>
       <c r="B173" s="10" t="s">
         <v>210</v>
       </c>
@@ -6988,20 +8694,20 @@
       <c r="G173" s="20">
         <v>200</v>
       </c>
-      <c r="H173" s="32"/>
+      <c r="H173" s="34"/>
     </row>
     <row r="174" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="26"/>
+      <c r="A174" s="39"/>
       <c r="B174" s="10"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
       <c r="G174" s="20"/>
-      <c r="H174" s="32"/>
+      <c r="H174" s="34"/>
     </row>
     <row r="175" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="26"/>
+      <c r="A175" s="39"/>
       <c r="B175" s="10" t="s">
         <v>210</v>
       </c>
@@ -7020,20 +8726,20 @@
       <c r="G175" s="20">
         <v>200</v>
       </c>
-      <c r="H175" s="32"/>
+      <c r="H175" s="34"/>
     </row>
     <row r="176" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="26"/>
+      <c r="A176" s="39"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="20"/>
-      <c r="H176" s="32"/>
+      <c r="H176" s="34"/>
     </row>
     <row r="177" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="38" t="s">
         <v>211</v>
       </c>
       <c r="B177" s="16" t="s">
@@ -7054,22 +8760,22 @@
       <c r="G177" s="19">
         <v>200</v>
       </c>
-      <c r="H177" s="29" t="s">
+      <c r="H177" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A178" s="26"/>
+      <c r="A178" s="39"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="12"/>
       <c r="E178" s="14"/>
       <c r="F178" s="9"/>
       <c r="G178" s="20"/>
-      <c r="H178" s="29"/>
+      <c r="H178" s="35"/>
     </row>
     <row r="179" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179" s="26"/>
+      <c r="A179" s="39"/>
       <c r="B179" s="10" t="s">
         <v>211</v>
       </c>
@@ -7088,20 +8794,20 @@
       <c r="G179" s="20">
         <v>200</v>
       </c>
-      <c r="H179" s="29"/>
+      <c r="H179" s="35"/>
     </row>
     <row r="180" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A180" s="26"/>
+      <c r="A180" s="39"/>
       <c r="B180" s="10"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="20"/>
-      <c r="H180" s="29"/>
+      <c r="H180" s="35"/>
     </row>
     <row r="181" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="38" t="s">
         <v>212</v>
       </c>
       <c r="B181" s="10" t="s">
@@ -7122,22 +8828,22 @@
       <c r="G181" s="20">
         <v>200</v>
       </c>
-      <c r="H181" s="30" t="s">
+      <c r="H181" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A182" s="26"/>
+      <c r="A182" s="39"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="12"/>
       <c r="E182" s="14"/>
       <c r="F182" s="9"/>
       <c r="G182" s="20"/>
-      <c r="H182" s="30"/>
+      <c r="H182" s="36"/>
     </row>
     <row r="183" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="38" t="s">
         <v>213</v>
       </c>
       <c r="B183" s="10" t="s">
@@ -7158,22 +8864,22 @@
       <c r="G183" s="20">
         <v>200</v>
       </c>
-      <c r="H183" s="30" t="s">
+      <c r="H183" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="26"/>
+      <c r="A184" s="39"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="12"/>
       <c r="E184" s="14"/>
       <c r="F184" s="9"/>
       <c r="G184" s="20"/>
-      <c r="H184" s="30"/>
+      <c r="H184" s="36"/>
     </row>
     <row r="185" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="38" t="s">
         <v>214</v>
       </c>
       <c r="B185" s="16" t="s">
@@ -7194,22 +8900,22 @@
       <c r="G185" s="19">
         <v>200</v>
       </c>
-      <c r="H185" s="29" t="s">
+      <c r="H185" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="26"/>
+      <c r="A186" s="39"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="12"/>
       <c r="E186" s="14"/>
       <c r="F186" s="9"/>
       <c r="G186" s="20"/>
-      <c r="H186" s="29"/>
+      <c r="H186" s="35"/>
     </row>
     <row r="187" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="26"/>
+      <c r="A187" s="39"/>
       <c r="B187" s="10" t="s">
         <v>214</v>
       </c>
@@ -7228,20 +8934,20 @@
       <c r="G187" s="20">
         <v>200</v>
       </c>
-      <c r="H187" s="29"/>
+      <c r="H187" s="35"/>
     </row>
     <row r="188" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="26"/>
+      <c r="A188" s="39"/>
       <c r="B188" s="10"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="20"/>
-      <c r="H188" s="29"/>
+      <c r="H188" s="35"/>
     </row>
     <row r="189" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="26"/>
+      <c r="A189" s="39"/>
       <c r="B189" s="10" t="s">
         <v>214</v>
       </c>
@@ -7258,20 +8964,20 @@
       <c r="G189" s="20">
         <v>200</v>
       </c>
-      <c r="H189" s="29"/>
+      <c r="H189" s="35"/>
     </row>
     <row r="190" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="26"/>
+      <c r="A190" s="39"/>
       <c r="B190" s="10"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
       <c r="G190" s="20"/>
-      <c r="H190" s="29"/>
+      <c r="H190" s="35"/>
     </row>
     <row r="191" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="38" t="s">
         <v>215</v>
       </c>
       <c r="B191" s="16" t="s">
@@ -7292,22 +8998,22 @@
       <c r="G191" s="19">
         <v>200</v>
       </c>
-      <c r="H191" s="30" t="s">
+      <c r="H191" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="26"/>
+      <c r="A192" s="39"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="12"/>
       <c r="E192" s="14"/>
       <c r="F192" s="9"/>
       <c r="G192" s="20"/>
-      <c r="H192" s="30"/>
+      <c r="H192" s="36"/>
     </row>
     <row r="193" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="26"/>
+      <c r="A193" s="39"/>
       <c r="B193" s="10" t="s">
         <v>215</v>
       </c>
@@ -7326,20 +9032,20 @@
       <c r="G193" s="20">
         <v>200</v>
       </c>
-      <c r="H193" s="30"/>
+      <c r="H193" s="36"/>
     </row>
     <row r="194" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="26"/>
+      <c r="A194" s="39"/>
       <c r="B194" s="10"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="20"/>
-      <c r="H194" s="30"/>
+      <c r="H194" s="36"/>
     </row>
     <row r="195" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="26"/>
+      <c r="A195" s="39"/>
       <c r="B195" s="10" t="s">
         <v>215</v>
       </c>
@@ -7356,20 +9062,20 @@
       <c r="G195" s="20">
         <v>200</v>
       </c>
-      <c r="H195" s="30"/>
+      <c r="H195" s="36"/>
     </row>
     <row r="196" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="26"/>
+      <c r="A196" s="39"/>
       <c r="B196" s="10"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="20"/>
-      <c r="H196" s="30"/>
+      <c r="H196" s="36"/>
     </row>
     <row r="197" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="38" t="s">
         <v>217</v>
       </c>
       <c r="B197" s="10" t="s">
@@ -7390,22 +9096,22 @@
       <c r="G197" s="20">
         <v>200</v>
       </c>
-      <c r="H197" s="30" t="s">
+      <c r="H197" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="26"/>
+      <c r="A198" s="39"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="12"/>
       <c r="E198" s="14"/>
       <c r="F198" s="9"/>
       <c r="G198" s="20"/>
-      <c r="H198" s="30"/>
+      <c r="H198" s="36"/>
     </row>
     <row r="199" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="38" t="s">
         <v>218</v>
       </c>
       <c r="B199" s="10" t="s">
@@ -7426,22 +9132,22 @@
       <c r="G199" s="20">
         <v>200</v>
       </c>
-      <c r="H199" s="30" t="s">
+      <c r="H199" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200" s="26"/>
+      <c r="A200" s="39"/>
       <c r="B200" s="10"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="20"/>
-      <c r="H200" s="30"/>
+      <c r="H200" s="36"/>
     </row>
     <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201" s="26"/>
+      <c r="A201" s="39"/>
       <c r="B201" s="10" t="s">
         <v>219</v>
       </c>
@@ -7460,20 +9166,20 @@
       <c r="G201" s="20">
         <v>200</v>
       </c>
-      <c r="H201" s="30"/>
+      <c r="H201" s="36"/>
     </row>
     <row r="202" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202" s="26"/>
+      <c r="A202" s="39"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="30"/>
+      <c r="H202" s="36"/>
     </row>
     <row r="203" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="38" t="s">
         <v>222</v>
       </c>
       <c r="B203" s="16" t="s">
@@ -7494,22 +9200,22 @@
       <c r="G203" s="19">
         <v>200</v>
       </c>
-      <c r="H203" s="30" t="s">
+      <c r="H203" s="36" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="26"/>
+      <c r="A204" s="39"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="12"/>
       <c r="E204" s="14"/>
       <c r="F204" s="9"/>
       <c r="G204" s="20"/>
-      <c r="H204" s="30"/>
+      <c r="H204" s="36"/>
     </row>
     <row r="205" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="26"/>
+      <c r="A205" s="39"/>
       <c r="B205" s="10" t="s">
         <v>222</v>
       </c>
@@ -7528,20 +9234,20 @@
       <c r="G205" s="20">
         <v>200</v>
       </c>
-      <c r="H205" s="30"/>
+      <c r="H205" s="36"/>
     </row>
     <row r="206" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="26"/>
+      <c r="A206" s="39"/>
       <c r="B206" s="10"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="20"/>
-      <c r="H206" s="30"/>
+      <c r="H206" s="36"/>
     </row>
     <row r="207" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="26"/>
+      <c r="A207" s="39"/>
       <c r="B207" s="10" t="s">
         <v>222</v>
       </c>
@@ -7558,20 +9264,20 @@
       <c r="G207" s="20">
         <v>200</v>
       </c>
-      <c r="H207" s="30"/>
+      <c r="H207" s="36"/>
     </row>
     <row r="208" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="26"/>
+      <c r="A208" s="39"/>
       <c r="B208" s="10"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="20"/>
-      <c r="H208" s="30"/>
+      <c r="H208" s="36"/>
     </row>
     <row r="209" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="26"/>
+      <c r="A209" s="39"/>
       <c r="B209" s="10" t="s">
         <v>222</v>
       </c>
@@ -7590,20 +9296,20 @@
       <c r="G209" s="20">
         <v>200</v>
       </c>
-      <c r="H209" s="30"/>
+      <c r="H209" s="36"/>
     </row>
     <row r="210" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="26"/>
+      <c r="A210" s="39"/>
       <c r="B210" s="10"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
       <c r="G210" s="20"/>
-      <c r="H210" s="30"/>
+      <c r="H210" s="36"/>
     </row>
     <row r="211" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="23" t="s">
+      <c r="A211" s="28" t="s">
         <v>224</v>
       </c>
       <c r="B211" s="10" t="s">
@@ -7624,20 +9330,20 @@
       <c r="G211" s="20">
         <v>200</v>
       </c>
-      <c r="H211" s="30"/>
+      <c r="H211" s="36"/>
     </row>
     <row r="212" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="23"/>
+      <c r="A212" s="28"/>
       <c r="B212" s="10"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
       <c r="G212" s="20"/>
-      <c r="H212" s="30"/>
+      <c r="H212" s="36"/>
     </row>
     <row r="213" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="26" t="s">
+      <c r="A213" s="39" t="s">
         <v>226</v>
       </c>
       <c r="B213" s="16" t="s">
@@ -7658,20 +9364,20 @@
       <c r="G213" s="19">
         <v>200</v>
       </c>
-      <c r="H213" s="30"/>
+      <c r="H213" s="36"/>
     </row>
     <row r="214" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="26"/>
+      <c r="A214" s="39"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="12"/>
       <c r="E214" s="14"/>
       <c r="F214" s="9"/>
       <c r="G214" s="20"/>
-      <c r="H214" s="30"/>
+      <c r="H214" s="36"/>
     </row>
     <row r="215" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="26"/>
+      <c r="A215" s="39"/>
       <c r="B215" s="10" t="s">
         <v>226</v>
       </c>
@@ -7690,20 +9396,20 @@
       <c r="G215" s="20">
         <v>200</v>
       </c>
-      <c r="H215" s="30"/>
+      <c r="H215" s="36"/>
     </row>
     <row r="216" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="26"/>
+      <c r="A216" s="39"/>
       <c r="B216" s="10"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="20"/>
-      <c r="H216" s="30"/>
+      <c r="H216" s="36"/>
     </row>
     <row r="217" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="26"/>
+      <c r="A217" s="39"/>
       <c r="B217" s="10" t="s">
         <v>226</v>
       </c>
@@ -7720,20 +9426,20 @@
       <c r="G217" s="20">
         <v>200</v>
       </c>
-      <c r="H217" s="30"/>
+      <c r="H217" s="36"/>
     </row>
     <row r="218" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="26"/>
+      <c r="A218" s="39"/>
       <c r="B218" s="10"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="20"/>
-      <c r="H218" s="30"/>
+      <c r="H218" s="36"/>
     </row>
     <row r="219" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="25" t="s">
+      <c r="A219" s="38" t="s">
         <v>227</v>
       </c>
       <c r="B219" s="16" t="s">
@@ -7754,22 +9460,22 @@
       <c r="G219" s="19">
         <v>200</v>
       </c>
-      <c r="H219" s="29" t="s">
+      <c r="H219" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="26"/>
+      <c r="A220" s="39"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="12"/>
       <c r="E220" s="14"/>
       <c r="F220" s="9"/>
       <c r="G220" s="20"/>
-      <c r="H220" s="29"/>
+      <c r="H220" s="35"/>
     </row>
     <row r="221" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="23" t="s">
+      <c r="A221" s="28" t="s">
         <v>229</v>
       </c>
       <c r="B221" s="10" t="s">
@@ -7790,20 +9496,20 @@
       <c r="G221" s="20">
         <v>200</v>
       </c>
-      <c r="H221" s="30"/>
+      <c r="H221" s="36"/>
     </row>
     <row r="222" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="23"/>
+      <c r="A222" s="28"/>
       <c r="B222" s="10"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="20"/>
-      <c r="H222" s="30"/>
+      <c r="H222" s="36"/>
     </row>
     <row r="223" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="26" t="s">
+      <c r="A223" s="39" t="s">
         <v>230</v>
       </c>
       <c r="B223" s="10" t="s">
@@ -7824,20 +9530,20 @@
       <c r="G223" s="20">
         <v>200</v>
       </c>
-      <c r="H223" s="30"/>
+      <c r="H223" s="36"/>
     </row>
     <row r="224" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="26"/>
+      <c r="A224" s="39"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
-      <c r="D224" s="34"/>
+      <c r="D224" s="23"/>
       <c r="E224" s="14"/>
       <c r="F224" s="9"/>
       <c r="G224" s="20"/>
-      <c r="H224" s="30"/>
+      <c r="H224" s="36"/>
     </row>
     <row r="225" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="38" t="s">
         <v>231</v>
       </c>
       <c r="B225" s="10" t="s">
@@ -7858,20 +9564,20 @@
       <c r="G225" s="20">
         <v>200</v>
       </c>
-      <c r="H225" s="30"/>
+      <c r="H225" s="36"/>
     </row>
     <row r="226" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="26"/>
+      <c r="A226" s="39"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
-      <c r="D226" s="34"/>
+      <c r="D226" s="23"/>
       <c r="E226" s="14"/>
       <c r="F226" s="9"/>
       <c r="G226" s="20"/>
-      <c r="H226" s="30"/>
+      <c r="H226" s="36"/>
     </row>
     <row r="227" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="38" t="s">
         <v>232</v>
       </c>
       <c r="B227" s="10" t="s">
@@ -7892,20 +9598,20 @@
       <c r="G227" s="20">
         <v>200</v>
       </c>
-      <c r="H227" s="30"/>
+      <c r="H227" s="36"/>
     </row>
     <row r="228" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="37"/>
+      <c r="A228" s="43"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="14"/>
       <c r="F228" s="9"/>
       <c r="G228" s="20"/>
-      <c r="H228" s="30"/>
+      <c r="H228" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="89">
     <mergeCell ref="A223:A224"/>
     <mergeCell ref="A225:A226"/>
     <mergeCell ref="A227:A228"/>
@@ -7952,11 +9658,6 @@
     <mergeCell ref="H36:H41"/>
     <mergeCell ref="H24:H35"/>
     <mergeCell ref="A161:A166"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="A154:A160"/>
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="A139:A140"/>
     <mergeCell ref="A141:A142"/>
@@ -7968,29 +9669,38 @@
     <mergeCell ref="H104:H105"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H46:H51"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="A154:A160"/>
     <mergeCell ref="H52:H66"/>
     <mergeCell ref="H67:H76"/>
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="H133:H134"/>
     <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H177:H180"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="H185:H190"/>
     <mergeCell ref="H137:H138"/>
     <mergeCell ref="H139:H140"/>
     <mergeCell ref="H141:H142"/>
+    <mergeCell ref="H147:H153"/>
+    <mergeCell ref="H154:H160"/>
+    <mergeCell ref="H161:H166"/>
+    <mergeCell ref="H167:H170"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I97"/>
+    <mergeCell ref="I98:I103"/>
+    <mergeCell ref="H143:H146"/>
     <mergeCell ref="H106:H115"/>
     <mergeCell ref="H116:H122"/>
     <mergeCell ref="H123:H128"/>
     <mergeCell ref="H129:H130"/>
     <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="H177:H180"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="H185:H190"/>
-    <mergeCell ref="H143:H146"/>
-    <mergeCell ref="H147:H153"/>
-    <mergeCell ref="H154:H160"/>
-    <mergeCell ref="H161:H166"/>
-    <mergeCell ref="H167:H170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
